--- a/Ch_6_Form/6 Graphs.xlsx
+++ b/Ch_6_Form/6 Graphs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antoi\Github\PhD\Ch_6_Form\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2932C859-B1A6-4978-8748-4A1B58C0750C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C63BCB95-118F-49B3-A477-8C174711C59A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{1ABE4724-14B1-4801-819D-892587CA02C5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="3" xr2:uid="{1ABE4724-14B1-4801-819D-892587CA02C5}"/>
   </bookViews>
   <sheets>
     <sheet name="nuc foot" sheetId="1" r:id="rId1"/>
@@ -465,7 +465,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -487,7 +487,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -551,22 +550,22 @@
     <xf numFmtId="0" fontId="8" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -24404,7 +24403,15 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="900" b="0"/>
-              <a:t>Estimated PN tonal targets (L*H)</a:t>
+              <a:t>Estimated Effects of</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="900" b="0" baseline="0"/>
+              <a:t> foot size on </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="900" b="0"/>
+              <a:t>PN tonal targets</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -24426,7 +24433,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>syls1</c:v>
+                  <c:v>foot_syls1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -24473,10 +24480,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>141.85718435222338</c:v>
+                    <c:v>39.603253615283961</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>73.884362765187007</c:v>
+                    <c:v>32.523008490727989</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -24488,10 +24495,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>141.85718435222338</c:v>
+                    <c:v>39.603253615283961</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>73.884362765187007</c:v>
+                    <c:v>32.523008490727989</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -24518,10 +24525,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>3.0108434807388988</c:v>
+                    <c:v>1.0365094033984201</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>3.8915207904201026</c:v>
+                    <c:v>1.103104769010667</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -24533,10 +24540,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>3.0108434807388988</c:v>
+                    <c:v>1.0365094033984201</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>3.8915207904201026</c:v>
+                    <c:v>1.103104769010667</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -24558,10 +24565,10 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>99.191000000000003</c:v>
+                  <c:v>46.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>232.477</c:v>
+                  <c:v>184.03</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -24573,10 +24580,10 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>85.962999999999994</c:v>
+                  <c:v>-0.72</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>88.100999999999999</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -24597,7 +24604,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>syls2</c:v>
+                  <c:v>foot_syls2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -24637,10 +24644,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>3.0094931643690046</c:v>
+                    <c:v>1.14536243901205</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>3.263962925516509</c:v>
+                    <c:v>1.1302750047327101</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -24652,10 +24659,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>3.0094931643690046</c:v>
+                    <c:v>1.14536243901205</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>3.263962925516509</c:v>
+                    <c:v>1.1302750047327101</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -24685,10 +24692,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>148.61008237174929</c:v>
+                    <c:v>38.994705327151109</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>49.062204666033011</c:v>
+                    <c:v>34.32899009903602</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -24700,10 +24707,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>148.61008237174929</c:v>
+                    <c:v>38.994705327151109</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>49.062204666033011</c:v>
+                    <c:v>34.32899009903602</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -24728,10 +24735,10 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>87.784999999999997</c:v>
+                  <c:v>47.72</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>255.14500000000001</c:v>
+                  <c:v>223.65</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -24743,10 +24750,10 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>85.86</c:v>
+                  <c:v>-0.97</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>88.558000000000007</c:v>
+                  <c:v>2.2400000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -24767,7 +24774,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>syls3</c:v>
+                  <c:v>foot_syls3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -24807,10 +24814,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>139.7667613878495</c:v>
+                    <c:v>39.120556731791503</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>59.498794147430004</c:v>
+                    <c:v>43.893535616929</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -24822,10 +24829,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>139.7667613878495</c:v>
+                    <c:v>39.120556731791503</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>59.498794147430004</c:v>
+                    <c:v>43.893535616929</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -24855,10 +24862,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>3.0065092732175032</c:v>
+                    <c:v>0.59591997893684001</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>3.4142793348631102</c:v>
+                    <c:v>1.0049340680001297</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -24870,10 +24877,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>3.0065092732175032</c:v>
+                    <c:v>0.59591997893684001</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>3.4142793348631102</c:v>
+                    <c:v>1.0049340680001297</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -24898,10 +24905,10 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>109.179</c:v>
+                  <c:v>52.71</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>291.245</c:v>
+                  <c:v>250.64</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -24913,10 +24920,10 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>85.846000000000004</c:v>
+                  <c:v>-0.88</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>88.742000000000004</c:v>
+                  <c:v>2.5099999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -24937,7 +24944,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>syls4</c:v>
+                  <c:v>foot_syls4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -24978,10 +24985,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>135.73213010109501</c:v>
+                    <c:v>39.612457096101295</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>67.494983952692962</c:v>
+                    <c:v>39.996234637442996</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -24993,10 +25000,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>135.73213010109501</c:v>
+                    <c:v>39.612457096101295</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>67.494983952692962</c:v>
+                    <c:v>39.996234637442996</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -25026,10 +25033,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>3.0171411237737971</c:v>
+                    <c:v>0.62294032209055006</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>3.7073234506026012</c:v>
+                    <c:v>1.03200995941283</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -25041,10 +25048,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>3.0171411237737971</c:v>
+                    <c:v>0.62294032209055006</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>3.7073234506026012</c:v>
+                    <c:v>1.03200995941283</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -25069,10 +25076,10 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>160.459</c:v>
+                  <c:v>64.489999999999995</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>329.01299999999998</c:v>
+                  <c:v>251.81</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -25084,10 +25091,10 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>85.95</c:v>
+                  <c:v>-0.78</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>88.49</c:v>
+                  <c:v>2.17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -25114,7 +25121,7 @@
         <c:axId val="501388352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="400"/>
+          <c:max val="300"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -25218,7 +25225,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="501389184"/>
-        <c:crosses val="autoZero"/>
+        <c:crossesAt val="-3"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="100"/>
       </c:valAx>
@@ -25226,8 +25233,7 @@
         <c:axId val="501389184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="92"/>
-          <c:min val="80"/>
+          <c:min val="-3"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -25305,7 +25311,23 @@
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                   </a:rPr>
-                  <a:t>(ST re 1 Hz)</a:t>
+                  <a:t>(ST </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="900" i="0" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>spekaer median</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="900" i="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -25361,10 +25383,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.60366450918296155"/>
-          <c:y val="0.55971000000000004"/>
-          <c:w val="0.28862060041407867"/>
-          <c:h val="0.21721061359867333"/>
+          <c:x val="0.20855333333333334"/>
+          <c:y val="0.1581397590733114"/>
+          <c:w val="0.36387999999999998"/>
+          <c:h val="0.24659394135702498"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -25535,16 +25557,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>73.884362765187007</c:v>
+                    <c:v>32.523008490727989</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>49.062204666033011</c:v>
+                    <c:v>34.32899009903602</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>59.498794147430004</c:v>
+                    <c:v>43.893535616929</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>67.494983952692962</c:v>
+                    <c:v>39.996234637442996</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -25556,16 +25578,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>73.884362765187007</c:v>
+                    <c:v>32.523008490727989</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>49.062204666033011</c:v>
+                    <c:v>34.32899009903602</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>59.498794147430004</c:v>
+                    <c:v>43.893535616929</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>67.494983952692962</c:v>
+                    <c:v>39.996234637442996</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -25589,16 +25611,16 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>syls1</c:v>
+                  <c:v>foot_syls1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>syls2</c:v>
+                  <c:v>foot_syls2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>syls3</c:v>
+                  <c:v>foot_syls3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>syls4</c:v>
+                  <c:v>foot_syls4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -25610,16 +25632,16 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>232.477</c:v>
+                  <c:v>184.03</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>255.14500000000001</c:v>
+                  <c:v>223.65</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>291.245</c:v>
+                  <c:v>250.64</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>329.01299999999998</c:v>
+                  <c:v>251.81</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -25685,16 +25707,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>73.884362765187007</c:v>
+                    <c:v>32.523008490727989</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>49.062204666033011</c:v>
+                    <c:v>34.32899009903602</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>59.498794147430004</c:v>
+                    <c:v>43.893535616929</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>67.494983952692962</c:v>
+                    <c:v>39.996234637442996</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -25706,16 +25728,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>73.884362765187007</c:v>
+                    <c:v>32.523008490727989</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>49.062204666033011</c:v>
+                    <c:v>34.32899009903602</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>59.498794147430004</c:v>
+                    <c:v>43.893535616929</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>67.494983952692962</c:v>
+                    <c:v>39.996234637442996</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -25738,16 +25760,16 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>syls1</c:v>
+                  <c:v>foot_syls1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>syls2</c:v>
+                  <c:v>foot_syls2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>syls3</c:v>
+                  <c:v>foot_syls3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>syls4</c:v>
+                  <c:v>foot_syls4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -25759,16 +25781,16 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>99.191000000000003</c:v>
+                  <c:v>46.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>87.784999999999997</c:v>
+                  <c:v>47.72</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>109.179</c:v>
+                  <c:v>52.71</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>160.459</c:v>
+                  <c:v>64.489999999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -26187,16 +26209,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>3.8915207904201026</c:v>
+                    <c:v>1.103104769010667</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>3.263962925516509</c:v>
+                    <c:v>1.1302750047327101</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>3.4142793348631102</c:v>
+                    <c:v>1.0049340680001297</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>3.7073234506026012</c:v>
+                    <c:v>1.03200995941283</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -26208,16 +26230,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>3.8915207904201026</c:v>
+                    <c:v>1.103104769010667</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>3.263962925516509</c:v>
+                    <c:v>1.1302750047327101</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>3.4142793348631102</c:v>
+                    <c:v>1.0049340680001297</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>3.7073234506026012</c:v>
+                    <c:v>1.03200995941283</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -26241,16 +26263,16 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>syls1</c:v>
+                  <c:v>foot_syls1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>syls2</c:v>
+                  <c:v>foot_syls2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>syls3</c:v>
+                  <c:v>foot_syls3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>syls4</c:v>
+                  <c:v>foot_syls4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -26262,16 +26284,16 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>88.100999999999999</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>88.558000000000007</c:v>
+                  <c:v>2.2400000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>88.742000000000004</c:v>
+                  <c:v>2.5099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>88.49</c:v>
+                  <c:v>2.17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -26335,16 +26357,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>3.8915207904201026</c:v>
+                    <c:v>1.103104769010667</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>3.263962925516509</c:v>
+                    <c:v>1.1302750047327101</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>3.4142793348631102</c:v>
+                    <c:v>1.0049340680001297</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>3.7073234506026012</c:v>
+                    <c:v>1.03200995941283</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -26356,16 +26378,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>3.8915207904201026</c:v>
+                    <c:v>1.103104769010667</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>3.263962925516509</c:v>
+                    <c:v>1.1302750047327101</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>3.4142793348631102</c:v>
+                    <c:v>1.0049340680001297</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>3.7073234506026012</c:v>
+                    <c:v>1.03200995941283</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -26390,16 +26412,16 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>syls1</c:v>
+                  <c:v>foot_syls1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>syls2</c:v>
+                  <c:v>foot_syls2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>syls3</c:v>
+                  <c:v>foot_syls3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>syls4</c:v>
+                  <c:v>foot_syls4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -26411,16 +26433,16 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>85.962999999999994</c:v>
+                  <c:v>-0.72</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>85.86</c:v>
+                  <c:v>-0.97</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>85.846000000000004</c:v>
+                  <c:v>-0.88</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>85.95</c:v>
+                  <c:v>-0.78</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -26505,8 +26527,6 @@
         <c:axId val="1583977055"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="92"/>
-          <c:min val="82"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -26730,6 +26750,1036 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'pn foot'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>foot_syls1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="1B9E77"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="1B9E77"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000000-E431-4797-943C-EB508094F5B1}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>('pn foot'!$F$3,'pn foot'!$F$16,'pn foot'!$F$29)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>39.603253615283961</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>32.523008490727989</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>('pn foot'!$F$3,'pn foot'!$F$16,'pn foot'!$F$29)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>39.603253615283961</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>32.523008490727989</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="1B9E77">
+                    <a:alpha val="50000"/>
+                  </a:srgbClr>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>('pn foot'!$F$9,'pn foot'!$F$22,'pn foot'!$F$35)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>1.0365094033984201</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.103104769010667</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>('pn foot'!$F$9,'pn foot'!$F$22,'pn foot'!$F$35)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>1.0365094033984201</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.103104769010667</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="1B9E77">
+                    <a:alpha val="49804"/>
+                  </a:srgbClr>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>('pn foot'!$B$3,'pn foot'!$B$16)</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>46.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>184.03</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>('pn foot'!$B$9,'pn foot'!$B$22)</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>-0.72</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E431-4797-943C-EB508094F5B1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'pn foot'!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>foot_syls2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="D95F02"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="D95F02"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>('pn foot'!$F$10,'pn foot'!$F$23,'pn foot'!$F$37)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>1.14536243901205</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.1302750047327101</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>('pn foot'!$F$10,'pn foot'!$F$23,'pn foot'!$F$37)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>1.14536243901205</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.1302750047327101</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:srgbClr val="D95F02">
+                    <a:alpha val="20000"/>
+                  </a:srgbClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>('pn foot'!$F$4,'pn foot'!$F$17,'pn foot'!$F$30)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>38.994705327151109</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>34.32899009903602</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>('pn foot'!$F$4,'pn foot'!$F$17,'pn foot'!$F$30)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>38.994705327151109</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>34.32899009903602</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:srgbClr val="D95F02">
+                    <a:alpha val="20000"/>
+                  </a:srgbClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>('pn foot'!$B$4,'pn foot'!$B$17)</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>47.72</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>223.65</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>('pn foot'!$B$10,'pn foot'!$B$23)</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>-0.97</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2400000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E431-4797-943C-EB508094F5B1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'pn foot'!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>foot_syls3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="47298A"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="47298A"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>('pn foot'!$F$5,'pn foot'!$F$18,'pn foot'!$F$31)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>39.120556731791503</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>43.893535616929</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>('pn foot'!$F$5,'pn foot'!$F$18,'pn foot'!$F$31)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>39.120556731791503</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>43.893535616929</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:srgbClr val="47298A">
+                    <a:alpha val="20000"/>
+                  </a:srgbClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>('pn foot'!$F$11,'pn foot'!$F$24,'pn foot'!$F$37)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>0.59591997893684001</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.0049340680001297</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>('pn foot'!$F$11,'pn foot'!$F$24,'pn foot'!$F$37)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>0.59591997893684001</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.0049340680001297</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:srgbClr val="47298A">
+                    <a:alpha val="20000"/>
+                  </a:srgbClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>('pn foot'!$B$5,'pn foot'!$B$18)</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>52.71</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>250.64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>('pn foot'!$B$11,'pn foot'!$B$24)</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>-0.88</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5099999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-E431-4797-943C-EB508094F5B1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'pn foot'!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>foot_syls4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="E7298A"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="E7298A"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>('pn foot'!$F$6,'pn foot'!$F$19,'pn foot'!$F$32)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>39.612457096101295</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>39.996234637442996</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>('pn foot'!$F$6,'pn foot'!$F$19,'pn foot'!$F$32)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>39.612457096101295</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>39.996234637442996</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:srgbClr val="E7298A">
+                    <a:alpha val="20000"/>
+                  </a:srgbClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>('pn foot'!$F$12,'pn foot'!$F$25,'pn foot'!$F$38)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>0.62294032209055006</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.03200995941283</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>('pn foot'!$F$12,'pn foot'!$F$25,'pn foot'!$F$38)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>0.62294032209055006</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.03200995941283</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:srgbClr val="E7298A">
+                    <a:alpha val="20000"/>
+                  </a:srgbClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>('pn foot'!$B$6,'pn foot'!$B$19)</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>64.489999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>251.81</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>('pn foot'!$B$12,'pn foot'!$B$25)</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>-0.78</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-E431-4797-943C-EB508094F5B1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="501388352"/>
+        <c:axId val="501389184"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="501388352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="300"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="900">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>time (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="501389184"/>
+        <c:crossesAt val="-3"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="100"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="501389184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="4"/>
+          <c:min val="-3"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="900" i="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>f</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="900" i="1" baseline="-25000">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>0</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="900" i="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="900" i="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>(ST </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="900" i="0" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>spekaer median</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="900" i="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:noFill/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="501388352"/>
+        <c:crossesAt val="-50"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="2"/>
+        <c:minorUnit val="0.5"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.51899777777777778"/>
+          <c:y val="0.52024843124269604"/>
+          <c:w val="0.36387999999999998"/>
+          <c:h val="0.24659394135702498"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg2"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart37.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
     <c:title>
       <c:tx>
         <c:rich>
@@ -26741,7 +27791,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="900" b="0"/>
-              <a:t>Estimated PN tonal targets (L*H)</a:t>
+              <a:t>Estimated PN tonal targets</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -26810,10 +27860,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>141.85718435222338</c:v>
+                    <c:v>39.603253615283961</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>73.884362765187007</c:v>
+                    <c:v>32.523050319513999</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -26825,10 +27875,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>141.85718435222338</c:v>
+                    <c:v>39.603253615283961</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>73.884362765187007</c:v>
+                    <c:v>32.523050319513999</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -26855,10 +27905,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>3.0108434807388988</c:v>
+                    <c:v>1.0365094033984201</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>3.8915207904201026</c:v>
+                    <c:v>1.103104769010667</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -26870,10 +27920,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>3.0108434807388988</c:v>
+                    <c:v>1.0365094033984201</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>3.8915207904201026</c:v>
+                    <c:v>1.103104769010667</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -26895,10 +27945,10 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>99.191000000000003</c:v>
+                  <c:v>46.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>232.477</c:v>
+                  <c:v>184.03</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -26910,10 +27960,10 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>85.962999999999994</c:v>
+                  <c:v>-0.72</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>88.100999999999999</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -26974,10 +28024,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>3.0257982654915025</c:v>
+                    <c:v>1.067070060180545</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>5.0891293434825116</c:v>
+                    <c:v>1.7759811698808627</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -26989,10 +28039,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>3.0257982654915025</c:v>
+                    <c:v>1.067070060180545</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>5.0891293434825116</c:v>
+                    <c:v>1.7759811698808627</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -27022,10 +28072,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>160.40015588982601</c:v>
+                    <c:v>96.232645765229094</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>103.284254930852</c:v>
+                    <c:v>55.871600420300609</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -27037,10 +28087,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>160.40015588982601</c:v>
+                    <c:v>96.232645765229094</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>103.284254930852</c:v>
+                    <c:v>55.871600420300609</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -27065,10 +28115,10 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>38.926000000000002</c:v>
+                  <c:v>13.69</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>196.648</c:v>
+                  <c:v>146.68</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -27080,10 +28130,10 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>86.875</c:v>
+                  <c:v>0.16</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>88.522000000000006</c:v>
+                  <c:v>1.79</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -27144,10 +28194,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>235.13945259902601</c:v>
+                    <c:v>96.168894014132306</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>134.71266854659098</c:v>
+                    <c:v>56.526610306574014</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -27159,10 +28209,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>235.13945259902601</c:v>
+                    <c:v>96.168894014132306</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>134.71266854659098</c:v>
+                    <c:v>56.526610306574014</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -27192,10 +28242,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>3.0560895732869966</c:v>
+                    <c:v>1.1448704520998101</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>6.7707581400265013</c:v>
+                    <c:v>1.7796678318673669</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -27207,10 +28257,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>3.0560895732869966</c:v>
+                    <c:v>1.1448704520998101</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>6.7707581400265013</c:v>
+                    <c:v>1.7796678318673669</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -27235,10 +28285,10 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>85.03</c:v>
+                  <c:v>15.11</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>257.97899999999998</c:v>
+                  <c:v>184.81</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -27250,10 +28300,10 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>86.179000000000002</c:v>
+                  <c:v>-0.52</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>87.959000000000003</c:v>
+                  <c:v>1.87</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -27315,10 +28365,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>235.13754208026398</c:v>
+                    <c:v>96.1658297226451</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>134.72513282329601</c:v>
+                    <c:v>56.526598636073004</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -27330,10 +28380,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>235.13754208026398</c:v>
+                    <c:v>96.1658297226451</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>134.72513282329601</c:v>
+                    <c:v>56.526598636073004</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -27363,10 +28413,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>3.056937877833704</c:v>
+                    <c:v>1.1417816410698101</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>6.7712200430273981</c:v>
+                    <c:v>1.7766369928528789</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -27378,10 +28428,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>3.056937877833704</c:v>
+                    <c:v>1.1417816410698101</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>6.7712200430273981</c:v>
+                    <c:v>1.7766369928528789</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -27406,10 +28456,10 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>95.102999999999994</c:v>
+                  <c:v>25.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>269.60500000000002</c:v>
+                  <c:v>196.31</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -27421,10 +28471,10 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>86.037000000000006</c:v>
+                  <c:v>-0.65</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>87.31</c:v>
+                  <c:v>1.17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -27451,8 +28501,6 @@
         <c:axId val="501388352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="400"/>
-          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -27555,7 +28603,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="501389184"/>
-        <c:crosses val="autoZero"/>
+        <c:crossesAt val="-4"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="100"/>
         <c:minorUnit val="20"/>
@@ -27564,8 +28612,6 @@
         <c:axId val="501389184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="92"/>
-          <c:min val="80"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -27687,7 +28733,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="501388352"/>
-        <c:crossesAt val="-50"/>
+        <c:crossesAt val="-100"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2"/>
         <c:minorUnit val="0.5"/>
@@ -27752,7 +28798,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart38.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -27873,16 +28919,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>73.884362765187007</c:v>
+                    <c:v>32.523050319513999</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>103.284254930852</c:v>
+                    <c:v>55.871600420300609</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>134.71266854659098</c:v>
+                    <c:v>56.526610306574014</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>134.72513282329601</c:v>
+                    <c:v>56.526598636073004</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -27894,16 +28940,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>73.884362765187007</c:v>
+                    <c:v>32.523050319513999</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>103.284254930852</c:v>
+                    <c:v>55.871600420300609</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>134.71266854659098</c:v>
+                    <c:v>56.526610306574014</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>134.72513282329601</c:v>
+                    <c:v>56.526598636073004</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -27948,16 +28994,16 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>232.477</c:v>
+                  <c:v>184.03</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>196.648</c:v>
+                  <c:v>146.68</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>257.97899999999998</c:v>
+                  <c:v>184.81</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>269.60500000000002</c:v>
+                  <c:v>196.31</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -28023,16 +29069,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>73.884362765187007</c:v>
+                    <c:v>32.523050319513999</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>103.284254930852</c:v>
+                    <c:v>55.871600420300609</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>134.71266854659098</c:v>
+                    <c:v>56.526610306574014</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>134.72513282329601</c:v>
+                    <c:v>56.526598636073004</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -28044,16 +29090,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>73.884362765187007</c:v>
+                    <c:v>32.523050319513999</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>103.284254930852</c:v>
+                    <c:v>55.871600420300609</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>134.71266854659098</c:v>
+                    <c:v>56.526610306574014</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>134.72513282329601</c:v>
+                    <c:v>56.526598636073004</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -28097,16 +29143,16 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>99.191000000000003</c:v>
+                  <c:v>46.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>38.926000000000002</c:v>
+                  <c:v>13.69</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>85.03</c:v>
+                  <c:v>15.11</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>95.102999999999994</c:v>
+                  <c:v>25.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -28397,7 +29443,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart39.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -28528,16 +29574,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>3.8915207904201026</c:v>
+                    <c:v>1.103104769010667</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>5.0891293434825116</c:v>
+                    <c:v>1.7759811698808627</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>6.7707581400265013</c:v>
+                    <c:v>1.7796678318673669</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>6.7712200430273981</c:v>
+                    <c:v>1.7766369928528789</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -28549,16 +29595,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>3.8915207904201026</c:v>
+                    <c:v>1.103104769010667</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>5.0891293434825116</c:v>
+                    <c:v>1.7759811698808627</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>6.7707581400265013</c:v>
+                    <c:v>1.7796678318673669</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>6.7712200430273981</c:v>
+                    <c:v>1.7766369928528789</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -28603,16 +29649,16 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>88.100999999999999</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>88.522000000000006</c:v>
+                  <c:v>1.79</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>87.959000000000003</c:v>
+                  <c:v>1.87</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>87.31</c:v>
+                  <c:v>1.17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -28676,16 +29722,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>3.8915207904201026</c:v>
+                    <c:v>1.103104769010667</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>5.0891293434825116</c:v>
+                    <c:v>1.7759811698808627</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>6.7707581400265013</c:v>
+                    <c:v>1.7796678318673669</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>6.7712200430273981</c:v>
+                    <c:v>1.7766369928528789</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -28697,16 +29743,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>3.8915207904201026</c:v>
+                    <c:v>1.103104769010667</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>5.0891293434825116</c:v>
+                    <c:v>1.7759811698808627</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>6.7707581400265013</c:v>
+                    <c:v>1.7796678318673669</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>6.7712200430273981</c:v>
+                    <c:v>1.7766369928528789</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -28752,16 +29798,16 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>85.962999999999994</c:v>
+                  <c:v>-0.72</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>86.875</c:v>
+                  <c:v>0.16</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>86.179000000000002</c:v>
+                  <c:v>-0.52</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>86.037000000000006</c:v>
+                  <c:v>-0.65</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -29042,877 +30088,6 @@
           <a:solidFill>
             <a:sysClr val="windowText" lastClr="000000"/>
           </a:solidFill>
-          <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-          <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-        </a:defRPr>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart39.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1000" b="0"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-IE" sz="1000" b="0">
-                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>Estimated lh_slope re foot_syls</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.17260755106142528"/>
-          <c:y val="0.1186387099442883"/>
-          <c:w val="0.63079731274731721"/>
-          <c:h val="0.7180981481481481"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="11"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'pn slope exc'!$A$20</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>syls4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400">
-              <a:solidFill>
-                <a:srgbClr val="E7298A"/>
-              </a:solidFill>
-              <a:prstDash val="sysDash"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000000-4F58-43DB-A30E-F6CB6FA46978}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="3.7309700897940994E-2"/>
-                  <c:y val="-2.9619747414658181E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-4F58-43DB-A30E-F6CB6FA46978}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900"/>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="25400">
-                      <a:solidFill>
-                        <a:srgbClr val="E7298A"/>
-                      </a:solidFill>
-                      <a:prstDash val="sysDash"/>
-                    </a:ln>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'pn slope exc'!$B$20:$B$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'pn slope exc'!$D$20:$D$21</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20.005355245758651</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-4F58-43DB-A30E-F6CB6FA46978}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="10"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'pn slope exc'!$A$18</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>syls3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400">
-              <a:solidFill>
-                <a:srgbClr val="47298A"/>
-              </a:solidFill>
-              <a:prstDash val="sysDot"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-4F58-43DB-A30E-F6CB6FA46978}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="3.3634244834345219E-2"/>
-                  <c:y val="7.3755362742058406E-3"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
-                  <a:noAutofit/>
-                </a:bodyPr>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900"/>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout>
-                    <c:manualLayout>
-                      <c:w val="0.10653526936775758"/>
-                      <c:h val="6.6447487494346438E-2"/>
-                    </c:manualLayout>
-                  </c15:layout>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000004-4F58-43DB-A30E-F6CB6FA46978}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900"/>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="25400">
-                      <a:solidFill>
-                        <a:srgbClr val="47298A"/>
-                      </a:solidFill>
-                      <a:prstDash val="sysDot"/>
-                    </a:ln>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'pn slope exc'!$B$18:$B$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'pn slope exc'!$D$18:$D$19</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16.543611248261875</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-4F58-43DB-A30E-F6CB6FA46978}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="9"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'pn slope exc'!$A$16</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>syls2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="D95F02"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000006-4F58-43DB-A30E-F6CB6FA46978}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="3.7659757435577937E-2"/>
-                  <c:y val="4.9220361106923289E-3"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000007-4F58-43DB-A30E-F6CB6FA46978}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900"/>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="25400">
-                      <a:solidFill>
-                        <a:srgbClr val="D95F02"/>
-                      </a:solidFill>
-                    </a:ln>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'pn slope exc'!$B$16:$B$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'pn slope exc'!$D$16:$D$17</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.6311246011102867</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-4F58-43DB-A30E-F6CB6FA46978}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'pn slope exc'!$A$14</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>syls1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400">
-              <a:solidFill>
-                <a:srgbClr val="1B9E77"/>
-              </a:solidFill>
-              <a:prstDash val="dash"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000009-4F58-43DB-A30E-F6CB6FA46978}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="3.8211730200932777E-2"/>
-                  <c:y val="-3.9350652430039032E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000A-4F58-43DB-A30E-F6CB6FA46978}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900"/>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="25400">
-                      <a:solidFill>
-                        <a:srgbClr val="1B9E77"/>
-                      </a:solidFill>
-                      <a:prstDash val="dash"/>
-                    </a:ln>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'pn slope exc'!$B$14:$B$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'pn slope exc'!$D$14:$D$15</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>17.93941056172967</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000B-4F58-43DB-A30E-F6CB6FA46978}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="755857903"/>
-        <c:axId val="755857071"/>
-        <c:extLst/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="755857903"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="D9D9D9"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="F2F2F2"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:minorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-IE" sz="900" b="0"/>
-                  <a:t>secs</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900"/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="755857071"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-        <c:majorUnit val="0.2"/>
-        <c:minorUnit val="0.1"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="755857071"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:srgbClr val="D9D9D9"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="F2F2F2"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:minorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-IE" sz="900" b="0" i="1">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                  </a:rPr>
-                  <a:t>f</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-IE" sz="900" b="0" baseline="-25000">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                  </a:rPr>
-                  <a:t>0</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-IE" sz="900" b="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                  </a:rPr>
-                  <a:t> (ST)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="0" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900"/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="755857903"/>
-        <c:crossesAt val="0"/>
-        <c:crossBetween val="midCat"/>
-        <c:majorUnit val="5"/>
-        <c:minorUnit val="1"/>
-      </c:valAx>
-      <c:spPr>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1">
-              <a:lumMod val="25000"/>
-              <a:lumOff val="75000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.18314614379236571"/>
-          <c:y val="0.12853740535401165"/>
-          <c:w val="0.23318072738624382"/>
-          <c:h val="0.28341185185185186"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1">
-              <a:lumMod val="25000"/>
-              <a:lumOff val="75000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr>
           <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
           <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
         </a:defRPr>
@@ -31011,6 +31186,877 @@
                 <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:rPr>
+              <a:t>Estimated lh_slope re foot_syls</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.17260755106142528"/>
+          <c:y val="0.1186387099442883"/>
+          <c:w val="0.63079731274731721"/>
+          <c:h val="0.7180981481481481"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'pn slope exc'!$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>syls3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400">
+              <a:solidFill>
+                <a:srgbClr val="E7298A"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-4F58-43DB-A30E-F6CB6FA46978}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.7309700897940994E-2"/>
+                  <c:y val="-2.9619747414658181E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-4F58-43DB-A30E-F6CB6FA46978}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="25400">
+                      <a:solidFill>
+                        <a:srgbClr val="E7298A"/>
+                      </a:solidFill>
+                      <a:prstDash val="sysDash"/>
+                    </a:ln>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'pn slope exc'!$B$20:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'pn slope exc'!$D$20:$D$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.958634009794029</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4F58-43DB-A30E-F6CB6FA46978}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'pn slope exc'!$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>syls2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400">
+              <a:solidFill>
+                <a:srgbClr val="47298A"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-4F58-43DB-A30E-F6CB6FA46978}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.3634244834345219E-2"/>
+                  <c:y val="7.3755362742058406E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900"/>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.10653526936775758"/>
+                      <c:h val="6.6447487494346438E-2"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-4F58-43DB-A30E-F6CB6FA46978}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="25400">
+                      <a:solidFill>
+                        <a:srgbClr val="47298A"/>
+                      </a:solidFill>
+                      <a:prstDash val="sysDot"/>
+                    </a:ln>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'pn slope exc'!$B$18:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'pn slope exc'!$D$18:$D$19</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.17414536944306</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-4F58-43DB-A30E-F6CB6FA46978}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'pn slope exc'!$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>syls1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="D95F02"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-4F58-43DB-A30E-F6CB6FA46978}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.7659757435577937E-2"/>
+                  <c:y val="4.9220361106923289E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-4F58-43DB-A30E-F6CB6FA46978}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="25400">
+                      <a:solidFill>
+                        <a:srgbClr val="D95F02"/>
+                      </a:solidFill>
+                    </a:ln>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'pn slope exc'!$B$16:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'pn slope exc'!$D$16:$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.332887019907195</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-4F58-43DB-A30E-F6CB6FA46978}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'pn slope exc'!$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>syls0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400">
+              <a:solidFill>
+                <a:srgbClr val="1B9E77"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-4F58-43DB-A30E-F6CB6FA46978}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.8211730200932777E-2"/>
+                  <c:y val="-3.9350652430039032E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-4F58-43DB-A30E-F6CB6FA46978}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="25400">
+                      <a:solidFill>
+                        <a:srgbClr val="1B9E77"/>
+                      </a:solidFill>
+                      <a:prstDash val="dash"/>
+                    </a:ln>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'pn slope exc'!$B$14:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'pn slope exc'!$D$14:$D$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.439969192802881</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-4F58-43DB-A30E-F6CB6FA46978}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="755857903"/>
+        <c:axId val="755857071"/>
+        <c:extLst/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="755857903"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="D9D9D9"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="F2F2F2"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IE" sz="900" b="0"/>
+                  <a:t>secs</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="755857071"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.2"/>
+        <c:minorUnit val="0.1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="755857071"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:srgbClr val="D9D9D9"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="F2F2F2"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IE" sz="900" b="0" i="1">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>f</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-IE" sz="900" b="0" baseline="-25000">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>0</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-IE" sz="900" b="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t> (ST)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="755857903"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="5"/>
+        <c:minorUnit val="1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="25000"/>
+              <a:lumOff val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.18314614379236571"/>
+          <c:y val="0.12853740535401165"/>
+          <c:w val="0.23318072738624382"/>
+          <c:h val="0.28341185185185186"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="25000"/>
+              <a:lumOff val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart41.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IE" sz="1000" b="0">
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
               <a:t>Estimated log lh_slope re foot_syls</a:t>
             </a:r>
           </a:p>
@@ -31043,7 +32089,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>syls4</c:v>
+                  <c:v>syls3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -31084,7 +32130,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.996</c:v>
+                  <c:v>2.77</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -31105,7 +32151,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>syls3</c:v>
+                  <c:v>syls2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -31146,7 +32192,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.806</c:v>
+                  <c:v>2.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -31167,7 +32213,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>syls2</c:v>
+                  <c:v>syls1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -31208,7 +32254,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.2650000000000001</c:v>
+                  <c:v>2.73</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -31229,7 +32275,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>syls1</c:v>
+                  <c:v>syls0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -31270,7 +32316,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.887</c:v>
+                  <c:v>2.67</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -31526,7 +32572,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart42.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -31712,16 +32758,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>6.4981079834560695</c:v>
+                    <c:v>1.0306245130913101</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>6.9632066910818597</c:v>
+                    <c:v>2.1528372421283346</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>7.4068286614961201</c:v>
+                    <c:v>2.14725350680003</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>6.8448341850404102</c:v>
+                    <c:v>2.1431796435623323</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -31733,16 +32779,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>6.4981079834560695</c:v>
+                    <c:v>1.0306245130913101</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>6.9632066910818597</c:v>
+                    <c:v>2.1528372421283346</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>7.4068286614961201</c:v>
+                    <c:v>2.14725350680003</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>6.8448341850404102</c:v>
+                    <c:v>2.1431796435623323</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -31754,16 +32800,16 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>syls0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>syls1</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>syls2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>syls3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>syls4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -31775,16 +32821,16 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2.2309999999999999</c:v>
+                  <c:v>2.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.7709999999999999</c:v>
+                  <c:v>2.19</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.024</c:v>
+                  <c:v>3.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.7440000000000002</c:v>
+                  <c:v>2.74</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -31994,7 +33040,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart43.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -32202,16 +33248,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>0.92143494418431993</c:v>
+                    <c:v>0.42554607282795009</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.52870032653281007</c:v>
+                    <c:v>0.93827991702499003</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.69552000044854001</c:v>
+                    <c:v>0.91107570000120996</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.75745971797823008</c:v>
+                    <c:v>0.91586236385601993</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -32223,16 +33269,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>0.92143494418431993</c:v>
+                    <c:v>0.42554607282795009</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.52870032653281007</c:v>
+                    <c:v>0.93827991702499003</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.69552000044854001</c:v>
+                    <c:v>0.91107570000120996</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.75745971797823008</c:v>
+                    <c:v>0.91586236385601993</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -32244,16 +33290,16 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>syls0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>syls1</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>syls2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>syls3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>syls4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -32265,16 +33311,16 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2.887</c:v>
+                  <c:v>2.67</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.2650000000000001</c:v>
+                  <c:v>2.73</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.806</c:v>
+                  <c:v>2.9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.996</c:v>
+                  <c:v>2.77</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -32487,7 +33533,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart44.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -32668,16 +33714,16 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>syls0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>syls1</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>syls2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>syls3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>syls4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -32689,16 +33735,16 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2.2309999999999999</c:v>
+                  <c:v>2.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.7709999999999999</c:v>
+                  <c:v>2.19</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.024</c:v>
+                  <c:v>3.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.7440000000000002</c:v>
+                  <c:v>2.74</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -32908,7 +33954,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart45.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -33110,16 +34156,16 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>syls0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>syls1</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>syls2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>syls3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>syls4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -33131,16 +34177,16 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2.887</c:v>
+                  <c:v>2.67</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.2650000000000001</c:v>
+                  <c:v>2.73</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.806</c:v>
+                  <c:v>2.9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.996</c:v>
+                  <c:v>2.77</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -33353,7 +34399,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart46.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -34470,7 +35516,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart47.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -51837,6 +52883,44 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>261600</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>33000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4B0A567-A9C6-4B9A-8595-4830FC7B8DB0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -52788,16 +53872,16 @@
             <v>ana_syls0</v>
           </cell>
           <cell r="B2">
-            <v>99.191000000000003</v>
+            <v>46.2</v>
           </cell>
           <cell r="C2">
-            <v>-42.666184352223397</v>
+            <v>6.5967463847160399</v>
           </cell>
           <cell r="D2">
-            <v>241.04787653420399</v>
+            <v>85.812500740278594</v>
           </cell>
           <cell r="E2">
-            <v>53.493000000000002</v>
+            <v>18.14</v>
           </cell>
         </row>
         <row r="3">
@@ -52805,16 +53889,16 @@
             <v>ana_syls1</v>
           </cell>
           <cell r="B3">
-            <v>38.926000000000002</v>
+            <v>13.69</v>
           </cell>
           <cell r="C3">
-            <v>-121.47415588982599</v>
+            <v>-82.542645765229096</v>
           </cell>
           <cell r="D3">
-            <v>199.326682280082</v>
+            <v>109.922277266642</v>
           </cell>
           <cell r="E3">
-            <v>63.66</v>
+            <v>38.51</v>
           </cell>
         </row>
         <row r="4">
@@ -52822,16 +53906,16 @@
             <v>ana_syls2</v>
           </cell>
           <cell r="B4">
-            <v>85.03</v>
+            <v>15.11</v>
           </cell>
           <cell r="C4">
-            <v>-150.10945259902601</v>
+            <v>-81.058894014132306</v>
           </cell>
           <cell r="D4">
-            <v>320.16906808639601</v>
+            <v>111.269364998366</v>
           </cell>
           <cell r="E4">
-            <v>90.198999999999998</v>
+            <v>38.89</v>
           </cell>
         </row>
         <row r="5">
@@ -52839,16 +53923,16 @@
             <v>ana_syls3</v>
           </cell>
           <cell r="B5">
-            <v>95.102999999999994</v>
+            <v>25.6</v>
           </cell>
           <cell r="C5">
-            <v>-140.034542080264</v>
+            <v>-70.565829722645105</v>
           </cell>
           <cell r="D5">
-            <v>330.24137020136999</v>
+            <v>121.76198505396501</v>
           </cell>
           <cell r="E5">
-            <v>90.203999999999994</v>
+            <v>38.89</v>
           </cell>
         </row>
         <row r="6">
@@ -52856,16 +53940,16 @@
             <v>foot_syls1</v>
           </cell>
           <cell r="B6">
-            <v>99.191000000000003</v>
+            <v>46.2</v>
           </cell>
           <cell r="C6">
-            <v>-42.666184352223397</v>
+            <v>6.5967463847160399</v>
           </cell>
           <cell r="D6">
-            <v>241.04787653420399</v>
+            <v>85.812500740278594</v>
           </cell>
           <cell r="E6">
-            <v>53.493000000000002</v>
+            <v>18.14</v>
           </cell>
         </row>
         <row r="7">
@@ -52873,16 +53957,16 @@
             <v>foot_syls2</v>
           </cell>
           <cell r="B7">
-            <v>87.784999999999997</v>
+            <v>47.72</v>
           </cell>
           <cell r="C7">
-            <v>-60.825082371749303</v>
+            <v>8.7252946728488894</v>
           </cell>
           <cell r="D7">
-            <v>236.39558274356801</v>
+            <v>86.721775274480393</v>
           </cell>
           <cell r="E7">
-            <v>45.851999999999997</v>
+            <v>17.690000000000001</v>
           </cell>
         </row>
         <row r="8">
@@ -52890,16 +53974,16 @@
             <v>foot_syls3</v>
           </cell>
           <cell r="B8">
-            <v>109.179</v>
+            <v>52.71</v>
           </cell>
           <cell r="C8">
-            <v>-30.5877613878495</v>
+            <v>13.5894432682085</v>
           </cell>
           <cell r="D8">
-            <v>248.94634459022899</v>
+            <v>91.821004083572603</v>
           </cell>
           <cell r="E8">
-            <v>47.95</v>
+            <v>17.670000000000002</v>
           </cell>
         </row>
         <row r="9">
@@ -52907,16 +53991,16 @@
             <v>foot_syls4</v>
           </cell>
           <cell r="B9">
-            <v>160.459</v>
+            <v>64.489999999999995</v>
           </cell>
           <cell r="C9">
-            <v>24.726869898905001</v>
+            <v>24.8775429038987</v>
           </cell>
           <cell r="D9">
-            <v>296.19032523111599</v>
+            <v>104.106184341922</v>
           </cell>
           <cell r="E9">
-            <v>49.258000000000003</v>
+            <v>18.07</v>
           </cell>
         </row>
       </sheetData>
@@ -52938,16 +54022,16 @@
             <v>ana_syls0</v>
           </cell>
           <cell r="B2">
-            <v>85.962999999999994</v>
+            <v>-0.72</v>
           </cell>
           <cell r="C2">
-            <v>82.952156519261095</v>
+            <v>-1.7565094033984201</v>
           </cell>
           <cell r="D2">
-            <v>88.973846816697005</v>
+            <v>0.32509691379777</v>
           </cell>
           <cell r="E2">
-            <v>1.359</v>
+            <v>0.43</v>
           </cell>
         </row>
         <row r="3">
@@ -52955,16 +54039,16 @@
             <v>ana_syls1</v>
           </cell>
           <cell r="B3">
-            <v>86.875</v>
+            <v>0.16</v>
           </cell>
           <cell r="C3">
-            <v>83.849201734508497</v>
+            <v>-0.90707006018054503</v>
           </cell>
           <cell r="D3">
-            <v>89.900251849171397</v>
+            <v>1.21769975053144</v>
           </cell>
           <cell r="E3">
-            <v>1.3720000000000001</v>
+            <v>0.47</v>
           </cell>
         </row>
         <row r="4">
@@ -52972,16 +54056,16 @@
             <v>ana_syls2</v>
           </cell>
           <cell r="B4">
-            <v>86.179000000000002</v>
+            <v>-0.52</v>
           </cell>
           <cell r="C4">
-            <v>83.122910426713005</v>
+            <v>-1.6648704520998101</v>
           </cell>
           <cell r="D4">
-            <v>89.235546475416697</v>
+            <v>0.62342027080806695</v>
           </cell>
           <cell r="E4">
-            <v>1.399</v>
+            <v>0.54</v>
           </cell>
         </row>
         <row r="5">
@@ -52989,16 +54073,16 @@
             <v>ana_syls3</v>
           </cell>
           <cell r="B5">
-            <v>86.037000000000006</v>
+            <v>-0.65</v>
           </cell>
           <cell r="C5">
-            <v>82.980062122166302</v>
+            <v>-1.79178164106981</v>
           </cell>
           <cell r="D5">
-            <v>89.093144396004405</v>
+            <v>0.49672222302129398</v>
           </cell>
           <cell r="E5">
-            <v>1.399</v>
+            <v>0.54</v>
           </cell>
         </row>
         <row r="6">
@@ -53006,16 +54090,16 @@
             <v>foot_syls1</v>
           </cell>
           <cell r="B6">
-            <v>85.962999999999994</v>
+            <v>-0.72</v>
           </cell>
           <cell r="C6">
-            <v>82.952156519261095</v>
+            <v>-1.7565094033984201</v>
           </cell>
           <cell r="D6">
-            <v>88.973846816697005</v>
+            <v>0.32509691379777</v>
           </cell>
           <cell r="E6">
-            <v>1.359</v>
+            <v>0.43</v>
           </cell>
         </row>
         <row r="7">
@@ -53023,16 +54107,16 @@
             <v>foot_syls2</v>
           </cell>
           <cell r="B7">
-            <v>85.86</v>
+            <v>-0.97</v>
           </cell>
           <cell r="C7">
-            <v>82.850506835630995</v>
+            <v>-2.11536243901205</v>
           </cell>
           <cell r="D7">
-            <v>88.8696516113461</v>
+            <v>0.173438535179854</v>
           </cell>
           <cell r="E7">
-            <v>1.3580000000000001</v>
+            <v>0.39</v>
           </cell>
         </row>
         <row r="8">
@@ -53040,16 +54124,16 @@
             <v>foot_syls3</v>
           </cell>
           <cell r="B8">
-            <v>85.846000000000004</v>
+            <v>-0.88</v>
           </cell>
           <cell r="C8">
-            <v>82.8394907267825</v>
+            <v>-1.47591997893684</v>
           </cell>
           <cell r="D8">
-            <v>88.852274071170697</v>
+            <v>-0.28500420634409701</v>
           </cell>
           <cell r="E8">
-            <v>1.355</v>
+            <v>0.28000000000000003</v>
           </cell>
         </row>
         <row r="9">
@@ -53057,16 +54141,16 @@
             <v>foot_syls4</v>
           </cell>
           <cell r="B9">
-            <v>85.95</v>
+            <v>-0.78</v>
           </cell>
           <cell r="C9">
-            <v>82.932858876226206</v>
+            <v>-1.4029403220905501</v>
           </cell>
           <cell r="D9">
-            <v>88.968005585847905</v>
+            <v>-0.154507965495841</v>
           </cell>
           <cell r="E9">
-            <v>1.365</v>
+            <v>0.3</v>
           </cell>
         </row>
       </sheetData>
@@ -53088,16 +54172,16 @@
             <v>ana_syls0</v>
           </cell>
           <cell r="B5">
-            <v>232.477</v>
+            <v>184.03</v>
           </cell>
           <cell r="C5">
-            <v>158.592637234813</v>
+            <v>151.506949680486</v>
           </cell>
           <cell r="D5">
-            <v>306.36139126068298</v>
+            <v>216.54399928761001</v>
           </cell>
           <cell r="E5">
-            <v>29.928000000000001</v>
+            <v>15.51</v>
           </cell>
         </row>
         <row r="6">
@@ -53105,16 +54189,16 @@
             <v>ana_syls1</v>
           </cell>
           <cell r="B6">
-            <v>196.648</v>
+            <v>146.68</v>
           </cell>
           <cell r="C6">
-            <v>93.363745069147996</v>
+            <v>90.808399579699397</v>
           </cell>
           <cell r="D6">
-            <v>299.93148699755301</v>
+            <v>202.55092072075499</v>
           </cell>
           <cell r="E6">
-            <v>40.637999999999998</v>
+            <v>23.92</v>
           </cell>
         </row>
         <row r="7">
@@ -53122,16 +54206,16 @@
             <v>ana_syls2</v>
           </cell>
           <cell r="B7">
-            <v>257.97899999999998</v>
+            <v>184.81</v>
           </cell>
           <cell r="C7">
-            <v>123.26633145340899</v>
+            <v>128.28338969342599</v>
           </cell>
           <cell r="D7">
-            <v>392.69246370139501</v>
+            <v>241.34456183907</v>
           </cell>
           <cell r="E7">
-            <v>53.183999999999997</v>
+            <v>24.92</v>
           </cell>
         </row>
         <row r="8">
@@ -53139,16 +54223,16 @@
             <v>ana_syls3</v>
           </cell>
           <cell r="B8">
-            <v>269.60500000000002</v>
+            <v>196.31</v>
           </cell>
           <cell r="C8">
-            <v>134.87986717670401</v>
+            <v>139.783401363927</v>
           </cell>
           <cell r="D8">
-            <v>404.32945705452198</v>
+            <v>252.84052976831401</v>
           </cell>
           <cell r="E8">
-            <v>53.207999999999998</v>
+            <v>24.93</v>
           </cell>
         </row>
         <row r="9">
@@ -53156,16 +54240,16 @@
             <v>foot_syls1</v>
           </cell>
           <cell r="B9">
-            <v>232.477</v>
+            <v>184.03</v>
           </cell>
           <cell r="C9">
-            <v>158.592637234813</v>
+            <v>151.50699150927201</v>
           </cell>
           <cell r="D9">
-            <v>306.36139126068298</v>
+            <v>216.543988074411</v>
           </cell>
           <cell r="E9">
-            <v>29.928000000000001</v>
+            <v>15.51</v>
           </cell>
         </row>
         <row r="10">
@@ -53173,16 +54257,16 @@
             <v>foot_syls2</v>
           </cell>
           <cell r="B10">
-            <v>255.14500000000001</v>
+            <v>223.65</v>
           </cell>
           <cell r="C10">
-            <v>206.082795333967</v>
+            <v>189.32100990096399</v>
           </cell>
           <cell r="D10">
-            <v>304.20709792613201</v>
+            <v>257.98451528172501</v>
           </cell>
           <cell r="E10">
-            <v>20.529</v>
+            <v>16.38</v>
           </cell>
         </row>
         <row r="11">
@@ -53190,16 +54274,16 @@
             <v>foot_syls3</v>
           </cell>
           <cell r="B11">
-            <v>291.245</v>
+            <v>250.64</v>
           </cell>
           <cell r="C11">
-            <v>231.74620585257</v>
+            <v>206.74646438307099</v>
           </cell>
           <cell r="D11">
-            <v>350.74356435047702</v>
+            <v>294.53480036163103</v>
           </cell>
           <cell r="E11">
-            <v>25.242999999999999</v>
+            <v>20.29</v>
           </cell>
         </row>
         <row r="12">
@@ -53207,16 +54291,16 @@
             <v>foot_syls4</v>
           </cell>
           <cell r="B12">
-            <v>329.01299999999998</v>
+            <v>251.81</v>
           </cell>
           <cell r="C12">
-            <v>261.51801604730701</v>
+            <v>211.81376536255701</v>
           </cell>
           <cell r="D12">
-            <v>396.50811173607099</v>
+            <v>291.80850172416001</v>
           </cell>
           <cell r="E12">
-            <v>30.181999999999999</v>
+            <v>18.86</v>
           </cell>
         </row>
       </sheetData>
@@ -53238,16 +54322,16 @@
             <v>ana_syls0</v>
           </cell>
           <cell r="B5">
-            <v>88.100999999999999</v>
+            <v>1.5</v>
           </cell>
           <cell r="C5">
-            <v>84.209479209579897</v>
+            <v>0.39689523098933299</v>
           </cell>
           <cell r="D5">
-            <v>91.993082025036799</v>
+            <v>2.5945488757358302</v>
           </cell>
           <cell r="E5">
-            <v>1.7110000000000001</v>
+            <v>0.51</v>
           </cell>
         </row>
         <row r="6">
@@ -53255,16 +54339,16 @@
             <v>ana_syls1</v>
           </cell>
           <cell r="B6">
-            <v>88.522000000000006</v>
+            <v>1.79</v>
           </cell>
           <cell r="C6">
-            <v>83.432870656517494</v>
+            <v>1.40188301191372E-2</v>
           </cell>
           <cell r="D6">
-            <v>93.611135296400505</v>
+            <v>3.5673911813759398</v>
           </cell>
           <cell r="E6">
-            <v>2.048</v>
+            <v>0.7</v>
           </cell>
         </row>
         <row r="7">
@@ -53272,16 +54356,16 @@
             <v>ana_syls2</v>
           </cell>
           <cell r="B7">
-            <v>87.959000000000003</v>
+            <v>1.87</v>
           </cell>
           <cell r="C7">
-            <v>81.188241859973502</v>
+            <v>9.03321681326332E-2</v>
           </cell>
           <cell r="D7">
-            <v>94.730033785834806</v>
+            <v>3.6407151941978699</v>
           </cell>
           <cell r="E7">
-            <v>2.4700000000000002</v>
+            <v>0.75</v>
           </cell>
         </row>
         <row r="8">
@@ -53289,16 +54373,16 @@
             <v>ana_syls3</v>
           </cell>
           <cell r="B8">
-            <v>87.31</v>
+            <v>1.17</v>
           </cell>
           <cell r="C8">
-            <v>80.538779956972604</v>
+            <v>-0.60663699285287898</v>
           </cell>
           <cell r="D8">
-            <v>94.081848877850604</v>
+            <v>2.9431319242153</v>
           </cell>
           <cell r="E8">
-            <v>2.4710000000000001</v>
+            <v>0.75</v>
           </cell>
         </row>
         <row r="9">
@@ -53306,16 +54390,16 @@
             <v>foot_syls1</v>
           </cell>
           <cell r="B9">
-            <v>88.100999999999999</v>
+            <v>1.5</v>
           </cell>
           <cell r="C9">
-            <v>84.209479209579897</v>
+            <v>0.39689523098933299</v>
           </cell>
           <cell r="D9">
-            <v>91.993082025036799</v>
+            <v>2.5945488757358302</v>
           </cell>
           <cell r="E9">
-            <v>1.7110000000000001</v>
+            <v>0.51</v>
           </cell>
         </row>
         <row r="10">
@@ -53323,16 +54407,16 @@
             <v>foot_syls2</v>
           </cell>
           <cell r="B10">
-            <v>88.558000000000007</v>
+            <v>2.2400000000000002</v>
           </cell>
           <cell r="C10">
-            <v>85.294037074483498</v>
+            <v>1.1097249952672901</v>
           </cell>
           <cell r="D10">
-            <v>91.821476621091193</v>
+            <v>3.3704089834438</v>
           </cell>
           <cell r="E10">
-            <v>1.5169999999999999</v>
+            <v>0.53</v>
           </cell>
         </row>
         <row r="11">
@@ -53340,16 +54424,16 @@
             <v>foot_syls3</v>
           </cell>
           <cell r="B11">
-            <v>88.742000000000004</v>
+            <v>2.5099999999999998</v>
           </cell>
           <cell r="C11">
-            <v>85.327720665136894</v>
+            <v>1.50506593199987</v>
           </cell>
           <cell r="D11">
-            <v>92.155853345174194</v>
+            <v>3.5234864941742101</v>
           </cell>
           <cell r="E11">
-            <v>1.5669999999999999</v>
+            <v>0.44</v>
           </cell>
         </row>
         <row r="12">
@@ -53357,16 +54441,16 @@
             <v>foot_syls4</v>
           </cell>
           <cell r="B12">
-            <v>88.49</v>
+            <v>2.17</v>
           </cell>
           <cell r="C12">
-            <v>84.782676549397394</v>
+            <v>1.1379900405871699</v>
           </cell>
           <cell r="D12">
-            <v>92.197898154401202</v>
+            <v>3.21044651648725</v>
           </cell>
           <cell r="E12">
-            <v>1.712</v>
+            <v>0.47</v>
           </cell>
         </row>
       </sheetData>
@@ -53399,70 +54483,70 @@
         </row>
         <row r="2">
           <cell r="A2" t="str">
-            <v>foot_syls1</v>
+            <v>ana_syls0</v>
           </cell>
           <cell r="B2">
-            <v>2.2309999999999999</v>
+            <v>2.25</v>
           </cell>
           <cell r="C2">
-            <v>-4.2671079834560697</v>
+            <v>1.2193754869086899</v>
           </cell>
           <cell r="D2">
-            <v>8.7293544037039794</v>
+            <v>3.2871948464253302</v>
           </cell>
           <cell r="E2">
-            <v>0.79400000000000004</v>
+            <v>0.48</v>
           </cell>
         </row>
         <row r="3">
           <cell r="A3" t="str">
-            <v>foot_syls2</v>
+            <v>ana_syls1</v>
           </cell>
           <cell r="B3">
-            <v>2.7709999999999999</v>
+            <v>2.19</v>
           </cell>
           <cell r="C3">
-            <v>-4.1922066910818598</v>
+            <v>3.71627578716653E-2</v>
           </cell>
           <cell r="D3">
-            <v>9.7336180292522307</v>
+            <v>4.3492149985115196</v>
           </cell>
           <cell r="E3">
-            <v>0.78800000000000003</v>
+            <v>0.84</v>
           </cell>
         </row>
         <row r="4">
           <cell r="A4" t="str">
-            <v>foot_syls3</v>
+            <v>ana_syls2</v>
           </cell>
           <cell r="B4">
-            <v>3.024</v>
+            <v>3.25</v>
           </cell>
           <cell r="C4">
-            <v>-4.38282866149612</v>
+            <v>1.10274649319997</v>
           </cell>
           <cell r="D4">
-            <v>10.431437983185299</v>
+            <v>5.3896313290389104</v>
           </cell>
           <cell r="E4">
-            <v>0.77900000000000003</v>
+            <v>0.86</v>
           </cell>
         </row>
         <row r="5">
           <cell r="A5" t="str">
-            <v>foot_syls4</v>
+            <v>ana_syls3</v>
           </cell>
           <cell r="B5">
-            <v>2.7440000000000002</v>
+            <v>2.74</v>
           </cell>
           <cell r="C5">
-            <v>-4.1008341850404104</v>
+            <v>0.59682035643766795</v>
           </cell>
           <cell r="D5">
-            <v>9.5880763180119892</v>
+            <v>4.8835889161651904</v>
           </cell>
           <cell r="E5">
-            <v>0.78800000000000003</v>
+            <v>0.86</v>
           </cell>
         </row>
       </sheetData>
@@ -53500,70 +54584,70 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="A2" t="str">
-            <v>foot_syls1</v>
+            <v>ana_syls0</v>
           </cell>
           <cell r="B2">
-            <v>2.887</v>
+            <v>2.67</v>
           </cell>
           <cell r="C2">
-            <v>1.9655650558156801</v>
+            <v>2.2444539271720498</v>
           </cell>
           <cell r="D2">
-            <v>3.8079351631042302</v>
+            <v>3.09445969557542</v>
           </cell>
           <cell r="E2">
-            <v>0.33800000000000002</v>
+            <v>0.19</v>
           </cell>
         </row>
         <row r="3">
           <cell r="A3" t="str">
-            <v>foot_syls2</v>
+            <v>ana_syls1</v>
           </cell>
           <cell r="B3">
-            <v>2.2650000000000001</v>
+            <v>2.73</v>
           </cell>
           <cell r="C3">
-            <v>1.7362996734671901</v>
+            <v>1.79172008297501</v>
           </cell>
           <cell r="D3">
-            <v>2.7946913656717198</v>
+            <v>3.662384469864</v>
           </cell>
           <cell r="E3">
-            <v>0.217</v>
+            <v>0.32</v>
           </cell>
         </row>
         <row r="4">
           <cell r="A4" t="str">
-            <v>foot_syls3</v>
+            <v>ana_syls2</v>
           </cell>
           <cell r="B4">
-            <v>2.806</v>
+            <v>2.9</v>
           </cell>
           <cell r="C4">
-            <v>2.11047999955146</v>
+            <v>1.9889242999987899</v>
           </cell>
           <cell r="D4">
-            <v>3.5013681689313301</v>
+            <v>3.8174185660920301</v>
           </cell>
           <cell r="E4">
-            <v>0.27100000000000002</v>
+            <v>0.33</v>
           </cell>
         </row>
         <row r="5">
           <cell r="A5" t="str">
-            <v>foot_syls4</v>
+            <v>ana_syls3</v>
           </cell>
           <cell r="B5">
-            <v>2.996</v>
+            <v>2.77</v>
           </cell>
           <cell r="C5">
-            <v>2.2385402820217699</v>
+            <v>1.8541376361439801</v>
           </cell>
           <cell r="D5">
-            <v>3.7529134134525699</v>
+            <v>3.6785445274248301</v>
           </cell>
           <cell r="E5">
-            <v>0.32700000000000001</v>
+            <v>0.33</v>
           </cell>
         </row>
       </sheetData>
@@ -54553,7 +55637,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BE8130F-68F7-4AB5-A7B9-D1C7DF27C657}">
   <dimension ref="A1:AP40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
@@ -57010,7 +58094,7 @@
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -57035,7 +58119,7 @@
         <v>CI diff</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="str">
         <f>RIGHT([13]nuc_f0_exc_b0!A2,5)</f>
         <v>syls1</v>
@@ -57060,13 +58144,12 @@
         <f t="shared" ref="F2:F5" si="0">B2-C2</f>
         <v>2.3634920308292102</v>
       </c>
-      <c r="R2" s="43" t="s">
+      <c r="R2" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="S2" s="44"/>
-      <c r="T2" s="15"/>
+      <c r="S2" s="43"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="str">
         <f>RIGHT([13]nuc_f0_exc_b0!A3,5)</f>
         <v>syls2</v>
@@ -57091,13 +58174,12 @@
         <f t="shared" si="0"/>
         <v>3.4853049726459751</v>
       </c>
-      <c r="R3" s="45" t="s">
+      <c r="R3" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="S3" s="46"/>
-      <c r="T3" s="15"/>
+      <c r="S3" s="45"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="str">
         <f>RIGHT([13]nuc_f0_exc_b0!A4,5)</f>
         <v>syls3</v>
@@ -57122,9 +58204,8 @@
         <f t="shared" si="0"/>
         <v>2.36411174597038</v>
       </c>
-      <c r="R4" s="15"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="str">
         <f>RIGHT([13]nuc_f0_exc_b0!A5,5)</f>
         <v>syls4</v>
@@ -57150,14 +58231,14 @@
         <v>3.1532495931389501</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="13"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -57182,7 +58263,7 @@
         <v>CI diff</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="str">
         <f>RIGHT([14]nuc_lh_slope_b0!A2,5)</f>
         <v>syls1</v>
@@ -57208,7 +58289,7 @@
         <v>0.71355244793377004</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="str">
         <f>RIGHT([14]nuc_lh_slope_b0!A3,5)</f>
         <v>syls2</v>
@@ -57234,7 +58315,7 @@
         <v>0.61157434227910024</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="str">
         <f>RIGHT([14]nuc_lh_slope_b0!A4,5)</f>
         <v>syls3</v>
@@ -57260,7 +58341,7 @@
         <v>0.71176576727665974</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="str">
         <f>RIGHT([14]nuc_lh_slope_b0!A5,5)</f>
         <v>syls4</v>
@@ -57286,7 +58367,7 @@
         <v>0.55696574260360032</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>21</v>
       </c>
@@ -57294,7 +58375,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="str">
         <f>A15</f>
         <v>syls1</v>
@@ -57310,7 +58391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="str">
         <f>A8</f>
         <v>syls1</v>
@@ -57327,7 +58408,7 @@
         <v>24.70486036037963</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="str">
         <f>A17</f>
         <v>syls2</v>
@@ -57598,8 +58679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FC0849F-EF38-4D7B-B676-64AFB5DCFB0A}">
   <dimension ref="A1:AN40"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -57631,106 +58712,106 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="str">
-        <f>REPLACE([15]pn_l_t_b0!A6, 1, 5,"")</f>
-        <v>syls1</v>
+        <f>[15]pn_l_t_b0!A6</f>
+        <v>foot_syls1</v>
       </c>
       <c r="B3" s="3">
         <f>[15]pn_l_t_b0!B6</f>
-        <v>99.191000000000003</v>
+        <v>46.2</v>
       </c>
       <c r="C3" s="3">
         <f>[15]pn_l_t_b0!C6</f>
-        <v>-42.666184352223397</v>
+        <v>6.5967463847160399</v>
       </c>
       <c r="D3" s="3">
         <f>[15]pn_l_t_b0!D6</f>
-        <v>241.04787653420399</v>
+        <v>85.812500740278594</v>
       </c>
       <c r="E3">
         <f>[15]pn_l_t_b0!E6</f>
-        <v>53.493000000000002</v>
+        <v>18.14</v>
       </c>
       <c r="F3">
         <f>B3-C3</f>
-        <v>141.85718435222338</v>
+        <v>39.603253615283961</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="str">
-        <f>REPLACE([15]pn_l_t_b0!A7, 1, 5,"")</f>
-        <v>syls2</v>
+        <f>[15]pn_l_t_b0!A7</f>
+        <v>foot_syls2</v>
       </c>
       <c r="B4" s="3">
         <f>[15]pn_l_t_b0!B7</f>
-        <v>87.784999999999997</v>
+        <v>47.72</v>
       </c>
       <c r="C4" s="3">
         <f>[15]pn_l_t_b0!C7</f>
-        <v>-60.825082371749303</v>
+        <v>8.7252946728488894</v>
       </c>
       <c r="D4" s="3">
         <f>[15]pn_l_t_b0!D7</f>
-        <v>236.39558274356801</v>
+        <v>86.721775274480393</v>
       </c>
       <c r="E4">
         <f>[15]pn_l_t_b0!E7</f>
-        <v>45.851999999999997</v>
+        <v>17.690000000000001</v>
       </c>
       <c r="F4">
         <f>B4-C4</f>
-        <v>148.61008237174929</v>
+        <v>38.994705327151109</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="str">
-        <f>REPLACE([15]pn_l_t_b0!A8, 1, 5,"")</f>
-        <v>syls3</v>
+        <f>[15]pn_l_t_b0!A8</f>
+        <v>foot_syls3</v>
       </c>
       <c r="B5" s="3">
         <f>[15]pn_l_t_b0!B8</f>
-        <v>109.179</v>
+        <v>52.71</v>
       </c>
       <c r="C5" s="3">
         <f>[15]pn_l_t_b0!C8</f>
-        <v>-30.5877613878495</v>
+        <v>13.5894432682085</v>
       </c>
       <c r="D5" s="3">
         <f>[15]pn_l_t_b0!D8</f>
-        <v>248.94634459022899</v>
+        <v>91.821004083572603</v>
       </c>
       <c r="E5">
         <f>[15]pn_l_t_b0!E8</f>
-        <v>47.95</v>
+        <v>17.670000000000002</v>
       </c>
       <c r="F5">
         <f>B5-C5</f>
-        <v>139.7667613878495</v>
+        <v>39.120556731791503</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="str">
-        <f>REPLACE([15]pn_l_t_b0!A9, 1, 5,"")</f>
-        <v>syls4</v>
+        <f>[15]pn_l_t_b0!A9</f>
+        <v>foot_syls4</v>
       </c>
       <c r="B6" s="3">
         <f>[15]pn_l_t_b0!B9</f>
-        <v>160.459</v>
+        <v>64.489999999999995</v>
       </c>
       <c r="C6" s="3">
         <f>[15]pn_l_t_b0!C9</f>
-        <v>24.726869898905001</v>
+        <v>24.8775429038987</v>
       </c>
       <c r="D6" s="3">
         <f>[15]pn_l_t_b0!D9</f>
-        <v>296.19032523111599</v>
+        <v>104.106184341922</v>
       </c>
       <c r="E6">
         <f>[15]pn_l_t_b0!E9</f>
-        <v>49.258000000000003</v>
+        <v>18.07</v>
       </c>
       <c r="F6">
         <f>B6-C6</f>
-        <v>135.73213010109501</v>
+        <v>39.612457096101295</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -57765,23 +58846,23 @@
       </c>
       <c r="B9" s="2">
         <f>[16]pn_l_f0_b0!B6</f>
-        <v>85.962999999999994</v>
+        <v>-0.72</v>
       </c>
       <c r="C9" s="2">
         <f>[16]pn_l_f0_b0!C6</f>
-        <v>82.952156519261095</v>
+        <v>-1.7565094033984201</v>
       </c>
       <c r="D9" s="2">
         <f>[16]pn_l_f0_b0!D6</f>
-        <v>88.973846816697005</v>
+        <v>0.32509691379777</v>
       </c>
       <c r="E9">
         <f>[16]pn_l_f0_b0!E6</f>
-        <v>1.359</v>
+        <v>0.43</v>
       </c>
       <c r="F9">
         <f t="shared" ref="F9:F25" si="0">B9-C9</f>
-        <v>3.0108434807388988</v>
+        <v>1.0365094033984201</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -57791,23 +58872,23 @@
       </c>
       <c r="B10" s="2">
         <f>[16]pn_l_f0_b0!B7</f>
-        <v>85.86</v>
+        <v>-0.97</v>
       </c>
       <c r="C10" s="2">
         <f>[16]pn_l_f0_b0!C7</f>
-        <v>82.850506835630995</v>
+        <v>-2.11536243901205</v>
       </c>
       <c r="D10" s="2">
         <f>[16]pn_l_f0_b0!D7</f>
-        <v>88.8696516113461</v>
+        <v>0.173438535179854</v>
       </c>
       <c r="E10">
         <f>[16]pn_l_f0_b0!E7</f>
-        <v>1.3580000000000001</v>
+        <v>0.39</v>
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
-        <v>3.0094931643690046</v>
+        <v>1.14536243901205</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -57817,23 +58898,23 @@
       </c>
       <c r="B11" s="2">
         <f>[16]pn_l_f0_b0!B8</f>
-        <v>85.846000000000004</v>
+        <v>-0.88</v>
       </c>
       <c r="C11" s="2">
         <f>[16]pn_l_f0_b0!C8</f>
-        <v>82.8394907267825</v>
+        <v>-1.47591997893684</v>
       </c>
       <c r="D11" s="2">
         <f>[16]pn_l_f0_b0!D8</f>
-        <v>88.852274071170697</v>
+        <v>-0.28500420634409701</v>
       </c>
       <c r="E11">
         <f>[16]pn_l_f0_b0!E8</f>
-        <v>1.355</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
-        <v>3.0065092732175032</v>
+        <v>0.59591997893684001</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -57843,23 +58924,23 @@
       </c>
       <c r="B12" s="2">
         <f>[16]pn_l_f0_b0!B9</f>
-        <v>85.95</v>
+        <v>-0.78</v>
       </c>
       <c r="C12" s="2">
         <f>[16]pn_l_f0_b0!C9</f>
-        <v>82.932858876226206</v>
+        <v>-1.4029403220905501</v>
       </c>
       <c r="D12" s="2">
         <f>[16]pn_l_f0_b0!D9</f>
-        <v>88.968005585847905</v>
+        <v>-0.154507965495841</v>
       </c>
       <c r="E12">
         <f>[16]pn_l_f0_b0!E9</f>
-        <v>1.365</v>
+        <v>0.3</v>
       </c>
       <c r="F12">
         <f t="shared" si="0"/>
-        <v>3.0171411237737971</v>
+        <v>0.62294032209055006</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -57894,23 +58975,23 @@
       </c>
       <c r="B16" s="3">
         <f>[17]pn_h_t_b0!B9</f>
-        <v>232.477</v>
+        <v>184.03</v>
       </c>
       <c r="C16" s="3">
         <f>[17]pn_h_t_b0!C9</f>
-        <v>158.592637234813</v>
+        <v>151.50699150927201</v>
       </c>
       <c r="D16" s="3">
         <f>[17]pn_h_t_b0!D9</f>
-        <v>306.36139126068298</v>
+        <v>216.543988074411</v>
       </c>
       <c r="E16">
         <f>[17]pn_h_t_b0!E9</f>
-        <v>29.928000000000001</v>
+        <v>15.51</v>
       </c>
       <c r="F16">
         <f t="shared" si="0"/>
-        <v>73.884362765187007</v>
+        <v>32.523008490727989</v>
       </c>
     </row>
     <row r="17" spans="1:40" x14ac:dyDescent="0.3">
@@ -57920,23 +59001,23 @@
       </c>
       <c r="B17" s="3">
         <f>[17]pn_h_t_b0!B10</f>
-        <v>255.14500000000001</v>
+        <v>223.65</v>
       </c>
       <c r="C17" s="3">
         <f>[17]pn_h_t_b0!C10</f>
-        <v>206.082795333967</v>
+        <v>189.32100990096399</v>
       </c>
       <c r="D17" s="3">
         <f>[17]pn_h_t_b0!D10</f>
-        <v>304.20709792613201</v>
+        <v>257.98451528172501</v>
       </c>
       <c r="E17">
         <f>[17]pn_h_t_b0!E10</f>
-        <v>20.529</v>
+        <v>16.38</v>
       </c>
       <c r="F17">
         <f t="shared" si="0"/>
-        <v>49.062204666033011</v>
+        <v>34.32899009903602</v>
       </c>
     </row>
     <row r="18" spans="1:40" x14ac:dyDescent="0.3">
@@ -57946,23 +59027,23 @@
       </c>
       <c r="B18" s="3">
         <f>[17]pn_h_t_b0!B11</f>
-        <v>291.245</v>
+        <v>250.64</v>
       </c>
       <c r="C18" s="3">
         <f>[17]pn_h_t_b0!C11</f>
-        <v>231.74620585257</v>
+        <v>206.74646438307099</v>
       </c>
       <c r="D18" s="3">
         <f>[17]pn_h_t_b0!D11</f>
-        <v>350.74356435047702</v>
+        <v>294.53480036163103</v>
       </c>
       <c r="E18">
         <f>[17]pn_h_t_b0!E11</f>
-        <v>25.242999999999999</v>
+        <v>20.29</v>
       </c>
       <c r="F18">
         <f t="shared" si="0"/>
-        <v>59.498794147430004</v>
+        <v>43.893535616929</v>
       </c>
     </row>
     <row r="19" spans="1:40" x14ac:dyDescent="0.3">
@@ -57972,23 +59053,23 @@
       </c>
       <c r="B19" s="3">
         <f>[17]pn_h_t_b0!B12</f>
-        <v>329.01299999999998</v>
+        <v>251.81</v>
       </c>
       <c r="C19" s="3">
         <f>[17]pn_h_t_b0!C12</f>
-        <v>261.51801604730701</v>
+        <v>211.81376536255701</v>
       </c>
       <c r="D19" s="3">
         <f>[17]pn_h_t_b0!D12</f>
-        <v>396.50811173607099</v>
+        <v>291.80850172416001</v>
       </c>
       <c r="E19">
         <f>[17]pn_h_t_b0!E12</f>
-        <v>30.181999999999999</v>
+        <v>18.86</v>
       </c>
       <c r="F19">
         <f t="shared" si="0"/>
-        <v>67.494983952692962</v>
+        <v>39.996234637442996</v>
       </c>
     </row>
     <row r="21" spans="1:40" x14ac:dyDescent="0.3">
@@ -58026,23 +59107,23 @@
       </c>
       <c r="B22" s="2">
         <f>[18]pn_h_f0_b0!B9</f>
-        <v>88.100999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="C22" s="2">
         <f>[18]pn_h_f0_b0!C9</f>
-        <v>84.209479209579897</v>
+        <v>0.39689523098933299</v>
       </c>
       <c r="D22" s="2">
         <f>[18]pn_h_f0_b0!D9</f>
-        <v>91.993082025036799</v>
+        <v>2.5945488757358302</v>
       </c>
       <c r="E22">
         <f>[18]pn_h_f0_b0!E9</f>
-        <v>1.7110000000000001</v>
+        <v>0.51</v>
       </c>
       <c r="F22">
         <f t="shared" si="0"/>
-        <v>3.8915207904201026</v>
+        <v>1.103104769010667</v>
       </c>
     </row>
     <row r="23" spans="1:40" x14ac:dyDescent="0.3">
@@ -58052,23 +59133,23 @@
       </c>
       <c r="B23" s="2">
         <f>[18]pn_h_f0_b0!B10</f>
-        <v>88.558000000000007</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="C23" s="2">
         <f>[18]pn_h_f0_b0!C10</f>
-        <v>85.294037074483498</v>
+        <v>1.1097249952672901</v>
       </c>
       <c r="D23" s="2">
         <f>[18]pn_h_f0_b0!D10</f>
-        <v>91.821476621091193</v>
+        <v>3.3704089834438</v>
       </c>
       <c r="E23">
         <f>[18]pn_h_f0_b0!E10</f>
-        <v>1.5169999999999999</v>
+        <v>0.53</v>
       </c>
       <c r="F23">
         <f t="shared" si="0"/>
-        <v>3.263962925516509</v>
+        <v>1.1302750047327101</v>
       </c>
     </row>
     <row r="24" spans="1:40" x14ac:dyDescent="0.3">
@@ -58078,23 +59159,23 @@
       </c>
       <c r="B24" s="2">
         <f>[18]pn_h_f0_b0!B11</f>
-        <v>88.742000000000004</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="C24" s="2">
         <f>[18]pn_h_f0_b0!C11</f>
-        <v>85.327720665136894</v>
+        <v>1.50506593199987</v>
       </c>
       <c r="D24" s="2">
         <f>[18]pn_h_f0_b0!D11</f>
-        <v>92.155853345174194</v>
+        <v>3.5234864941742101</v>
       </c>
       <c r="E24">
         <f>[18]pn_h_f0_b0!E11</f>
-        <v>1.5669999999999999</v>
+        <v>0.44</v>
       </c>
       <c r="F24">
         <f t="shared" si="0"/>
-        <v>3.4142793348631102</v>
+        <v>1.0049340680001297</v>
       </c>
     </row>
     <row r="25" spans="1:40" x14ac:dyDescent="0.3">
@@ -58104,23 +59185,23 @@
       </c>
       <c r="B25" s="2">
         <f>[18]pn_h_f0_b0!B12</f>
-        <v>88.49</v>
+        <v>2.17</v>
       </c>
       <c r="C25" s="2">
         <f>[18]pn_h_f0_b0!C12</f>
-        <v>84.782676549397394</v>
+        <v>1.1379900405871699</v>
       </c>
       <c r="D25" s="2">
         <f>[18]pn_h_f0_b0!D12</f>
-        <v>92.197898154401202</v>
+        <v>3.21044651648725</v>
       </c>
       <c r="E25">
         <f>[18]pn_h_f0_b0!E12</f>
-        <v>1.712</v>
+        <v>0.47</v>
       </c>
       <c r="F25">
         <f t="shared" si="0"/>
-        <v>3.7073234506026012</v>
+        <v>1.03200995941283</v>
       </c>
     </row>
     <row r="29" spans="1:40" x14ac:dyDescent="0.3">
@@ -58228,7 +59309,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C06452F-268F-41A1-B73D-786A1FD63390}">
   <dimension ref="A1:AN40"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -58267,23 +59350,23 @@
       </c>
       <c r="B3" s="3">
         <f>[15]pn_l_t_b0!B2</f>
-        <v>99.191000000000003</v>
+        <v>46.2</v>
       </c>
       <c r="C3" s="3">
         <f>[15]pn_l_t_b0!C2</f>
-        <v>-42.666184352223397</v>
+        <v>6.5967463847160399</v>
       </c>
       <c r="D3" s="3">
         <f>[15]pn_l_t_b0!D2</f>
-        <v>241.04787653420399</v>
+        <v>85.812500740278594</v>
       </c>
       <c r="E3">
         <f>[15]pn_l_t_b0!E2</f>
-        <v>53.493000000000002</v>
-      </c>
-      <c r="F3">
+        <v>18.14</v>
+      </c>
+      <c r="F3" s="3">
         <f>B3-C3</f>
-        <v>141.85718435222338</v>
+        <v>39.603253615283961</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -58293,23 +59376,23 @@
       </c>
       <c r="B4" s="3">
         <f>[15]pn_l_t_b0!B3</f>
-        <v>38.926000000000002</v>
+        <v>13.69</v>
       </c>
       <c r="C4" s="3">
         <f>[15]pn_l_t_b0!C3</f>
-        <v>-121.47415588982599</v>
+        <v>-82.542645765229096</v>
       </c>
       <c r="D4" s="3">
         <f>[15]pn_l_t_b0!D3</f>
-        <v>199.326682280082</v>
+        <v>109.922277266642</v>
       </c>
       <c r="E4">
         <f>[15]pn_l_t_b0!E3</f>
-        <v>63.66</v>
-      </c>
-      <c r="F4">
+        <v>38.51</v>
+      </c>
+      <c r="F4" s="3">
         <f>B4-C4</f>
-        <v>160.40015588982601</v>
+        <v>96.232645765229094</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -58319,23 +59402,23 @@
       </c>
       <c r="B5" s="3">
         <f>[15]pn_l_t_b0!B4</f>
-        <v>85.03</v>
+        <v>15.11</v>
       </c>
       <c r="C5" s="3">
         <f>[15]pn_l_t_b0!C4</f>
-        <v>-150.10945259902601</v>
+        <v>-81.058894014132306</v>
       </c>
       <c r="D5" s="3">
         <f>[15]pn_l_t_b0!D4</f>
-        <v>320.16906808639601</v>
+        <v>111.269364998366</v>
       </c>
       <c r="E5">
         <f>[15]pn_l_t_b0!E4</f>
-        <v>90.198999999999998</v>
-      </c>
-      <c r="F5">
+        <v>38.89</v>
+      </c>
+      <c r="F5" s="3">
         <f>B5-C5</f>
-        <v>235.13945259902601</v>
+        <v>96.168894014132306</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -58345,23 +59428,23 @@
       </c>
       <c r="B6" s="3">
         <f>[15]pn_l_t_b0!B5</f>
-        <v>95.102999999999994</v>
+        <v>25.6</v>
       </c>
       <c r="C6" s="3">
         <f>[15]pn_l_t_b0!C5</f>
-        <v>-140.034542080264</v>
+        <v>-70.565829722645105</v>
       </c>
       <c r="D6" s="3">
         <f>[15]pn_l_t_b0!D5</f>
-        <v>330.24137020136999</v>
+        <v>121.76198505396501</v>
       </c>
       <c r="E6">
         <f>[15]pn_l_t_b0!E5</f>
-        <v>90.203999999999994</v>
-      </c>
-      <c r="F6">
+        <v>38.89</v>
+      </c>
+      <c r="F6" s="3">
         <f>B6-C6</f>
-        <v>235.13754208026398</v>
+        <v>96.1658297226451</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -58396,23 +59479,23 @@
       </c>
       <c r="B9" s="2">
         <f>[16]pn_l_f0_b0!B2</f>
-        <v>85.962999999999994</v>
+        <v>-0.72</v>
       </c>
       <c r="C9" s="2">
         <f>[16]pn_l_f0_b0!C2</f>
-        <v>82.952156519261095</v>
+        <v>-1.7565094033984201</v>
       </c>
       <c r="D9" s="2">
         <f>[16]pn_l_f0_b0!D2</f>
-        <v>88.973846816697005</v>
+        <v>0.32509691379777</v>
       </c>
       <c r="E9" s="2">
         <f>[16]pn_l_f0_b0!E2</f>
-        <v>1.359</v>
-      </c>
-      <c r="F9">
-        <f t="shared" ref="F9:F25" si="0">B9-C9</f>
-        <v>3.0108434807388988</v>
+        <v>0.43</v>
+      </c>
+      <c r="F9" s="2">
+        <f>B9-C9</f>
+        <v>1.0365094033984201</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -58422,23 +59505,23 @@
       </c>
       <c r="B10" s="2">
         <f>[16]pn_l_f0_b0!B3</f>
-        <v>86.875</v>
+        <v>0.16</v>
       </c>
       <c r="C10" s="2">
         <f>[16]pn_l_f0_b0!C3</f>
-        <v>83.849201734508497</v>
+        <v>-0.90707006018054503</v>
       </c>
       <c r="D10" s="2">
         <f>[16]pn_l_f0_b0!D3</f>
-        <v>89.900251849171397</v>
+        <v>1.21769975053144</v>
       </c>
       <c r="E10" s="2">
         <f>[16]pn_l_f0_b0!E3</f>
-        <v>1.3720000000000001</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="0"/>
-        <v>3.0257982654915025</v>
+        <v>0.47</v>
+      </c>
+      <c r="F10" s="2">
+        <f>B10-C10</f>
+        <v>1.067070060180545</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -58448,23 +59531,23 @@
       </c>
       <c r="B11" s="2">
         <f>[16]pn_l_f0_b0!B4</f>
-        <v>86.179000000000002</v>
+        <v>-0.52</v>
       </c>
       <c r="C11" s="2">
         <f>[16]pn_l_f0_b0!C4</f>
-        <v>83.122910426713005</v>
+        <v>-1.6648704520998101</v>
       </c>
       <c r="D11" s="2">
         <f>[16]pn_l_f0_b0!D4</f>
-        <v>89.235546475416697</v>
+        <v>0.62342027080806695</v>
       </c>
       <c r="E11" s="2">
         <f>[16]pn_l_f0_b0!E4</f>
-        <v>1.399</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="0"/>
-        <v>3.0560895732869966</v>
+        <v>0.54</v>
+      </c>
+      <c r="F11" s="2">
+        <f>B11-C11</f>
+        <v>1.1448704520998101</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -58474,23 +59557,23 @@
       </c>
       <c r="B12" s="2">
         <f>[16]pn_l_f0_b0!B5</f>
-        <v>86.037000000000006</v>
+        <v>-0.65</v>
       </c>
       <c r="C12" s="2">
         <f>[16]pn_l_f0_b0!C5</f>
-        <v>82.980062122166302</v>
+        <v>-1.79178164106981</v>
       </c>
       <c r="D12" s="2">
         <f>[16]pn_l_f0_b0!D5</f>
-        <v>89.093144396004405</v>
+        <v>0.49672222302129398</v>
       </c>
       <c r="E12" s="2">
         <f>[16]pn_l_f0_b0!E5</f>
-        <v>1.399</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="0"/>
-        <v>3.056937877833704</v>
+        <v>0.54</v>
+      </c>
+      <c r="F12" s="2">
+        <f>B12-C12</f>
+        <v>1.1417816410698101</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -58525,23 +59608,23 @@
       </c>
       <c r="B16" s="3">
         <f>[17]pn_h_t_b0!B5</f>
-        <v>232.477</v>
+        <v>184.03</v>
       </c>
       <c r="C16" s="3">
         <f>[17]pn_h_t_b0!C5</f>
-        <v>158.592637234813</v>
+        <v>151.506949680486</v>
       </c>
       <c r="D16" s="3">
         <f>[17]pn_h_t_b0!D5</f>
-        <v>306.36139126068298</v>
+        <v>216.54399928761001</v>
       </c>
       <c r="E16" s="3">
         <f>[17]pn_h_t_b0!E5</f>
-        <v>29.928000000000001</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="0"/>
-        <v>73.884362765187007</v>
+        <v>15.51</v>
+      </c>
+      <c r="F16" s="3">
+        <f>B16-C16</f>
+        <v>32.523050319513999</v>
       </c>
     </row>
     <row r="17" spans="1:40" x14ac:dyDescent="0.3">
@@ -58551,23 +59634,23 @@
       </c>
       <c r="B17" s="3">
         <f>[17]pn_h_t_b0!B6</f>
-        <v>196.648</v>
+        <v>146.68</v>
       </c>
       <c r="C17" s="3">
         <f>[17]pn_h_t_b0!C6</f>
-        <v>93.363745069147996</v>
+        <v>90.808399579699397</v>
       </c>
       <c r="D17" s="3">
         <f>[17]pn_h_t_b0!D6</f>
-        <v>299.93148699755301</v>
+        <v>202.55092072075499</v>
       </c>
       <c r="E17" s="3">
         <f>[17]pn_h_t_b0!E6</f>
-        <v>40.637999999999998</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="0"/>
-        <v>103.284254930852</v>
+        <v>23.92</v>
+      </c>
+      <c r="F17" s="3">
+        <f>B17-C17</f>
+        <v>55.871600420300609</v>
       </c>
     </row>
     <row r="18" spans="1:40" x14ac:dyDescent="0.3">
@@ -58577,23 +59660,23 @@
       </c>
       <c r="B18" s="3">
         <f>[17]pn_h_t_b0!B7</f>
-        <v>257.97899999999998</v>
+        <v>184.81</v>
       </c>
       <c r="C18" s="3">
         <f>[17]pn_h_t_b0!C7</f>
-        <v>123.26633145340899</v>
+        <v>128.28338969342599</v>
       </c>
       <c r="D18" s="3">
         <f>[17]pn_h_t_b0!D7</f>
-        <v>392.69246370139501</v>
+        <v>241.34456183907</v>
       </c>
       <c r="E18" s="3">
         <f>[17]pn_h_t_b0!E7</f>
-        <v>53.183999999999997</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="0"/>
-        <v>134.71266854659098</v>
+        <v>24.92</v>
+      </c>
+      <c r="F18" s="3">
+        <f>B18-C18</f>
+        <v>56.526610306574014</v>
       </c>
     </row>
     <row r="19" spans="1:40" x14ac:dyDescent="0.3">
@@ -58603,23 +59686,23 @@
       </c>
       <c r="B19" s="3">
         <f>[17]pn_h_t_b0!B8</f>
-        <v>269.60500000000002</v>
+        <v>196.31</v>
       </c>
       <c r="C19" s="3">
         <f>[17]pn_h_t_b0!C8</f>
-        <v>134.87986717670401</v>
+        <v>139.783401363927</v>
       </c>
       <c r="D19" s="3">
         <f>[17]pn_h_t_b0!D8</f>
-        <v>404.32945705452198</v>
+        <v>252.84052976831401</v>
       </c>
       <c r="E19" s="3">
         <f>[17]pn_h_t_b0!E8</f>
-        <v>53.207999999999998</v>
-      </c>
-      <c r="F19">
-        <f t="shared" si="0"/>
-        <v>134.72513282329601</v>
+        <v>24.93</v>
+      </c>
+      <c r="F19" s="3">
+        <f>B19-C19</f>
+        <v>56.526598636073004</v>
       </c>
     </row>
     <row r="21" spans="1:40" x14ac:dyDescent="0.3">
@@ -58657,23 +59740,23 @@
       </c>
       <c r="B22" s="2">
         <f>[18]pn_h_f0_b0!B5</f>
-        <v>88.100999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="C22" s="2">
         <f>[18]pn_h_f0_b0!C5</f>
-        <v>84.209479209579897</v>
+        <v>0.39689523098933299</v>
       </c>
       <c r="D22" s="2">
         <f>[18]pn_h_f0_b0!D5</f>
-        <v>91.993082025036799</v>
+        <v>2.5945488757358302</v>
       </c>
       <c r="E22" s="2">
         <f>[18]pn_h_f0_b0!E5</f>
-        <v>1.7110000000000001</v>
-      </c>
-      <c r="F22">
-        <f t="shared" si="0"/>
-        <v>3.8915207904201026</v>
+        <v>0.51</v>
+      </c>
+      <c r="F22" s="2">
+        <f>B22-C22</f>
+        <v>1.103104769010667</v>
       </c>
     </row>
     <row r="23" spans="1:40" x14ac:dyDescent="0.3">
@@ -58683,23 +59766,23 @@
       </c>
       <c r="B23" s="2">
         <f>[18]pn_h_f0_b0!B6</f>
-        <v>88.522000000000006</v>
+        <v>1.79</v>
       </c>
       <c r="C23" s="2">
         <f>[18]pn_h_f0_b0!C6</f>
-        <v>83.432870656517494</v>
+        <v>1.40188301191372E-2</v>
       </c>
       <c r="D23" s="2">
         <f>[18]pn_h_f0_b0!D6</f>
-        <v>93.611135296400505</v>
+        <v>3.5673911813759398</v>
       </c>
       <c r="E23" s="2">
         <f>[18]pn_h_f0_b0!E6</f>
-        <v>2.048</v>
+        <v>0.7</v>
       </c>
       <c r="F23">
-        <f t="shared" si="0"/>
-        <v>5.0891293434825116</v>
+        <f t="shared" ref="F9:F25" si="0">B23-C23</f>
+        <v>1.7759811698808627</v>
       </c>
     </row>
     <row r="24" spans="1:40" x14ac:dyDescent="0.3">
@@ -58709,23 +59792,23 @@
       </c>
       <c r="B24" s="2">
         <f>[18]pn_h_f0_b0!B7</f>
-        <v>87.959000000000003</v>
+        <v>1.87</v>
       </c>
       <c r="C24" s="2">
         <f>[18]pn_h_f0_b0!C7</f>
-        <v>81.188241859973502</v>
+        <v>9.03321681326332E-2</v>
       </c>
       <c r="D24" s="2">
         <f>[18]pn_h_f0_b0!D7</f>
-        <v>94.730033785834806</v>
+        <v>3.6407151941978699</v>
       </c>
       <c r="E24" s="2">
         <f>[18]pn_h_f0_b0!E7</f>
-        <v>2.4700000000000002</v>
-      </c>
-      <c r="F24">
-        <f t="shared" si="0"/>
-        <v>6.7707581400265013</v>
+        <v>0.75</v>
+      </c>
+      <c r="F24" s="2">
+        <f>B24-C24</f>
+        <v>1.7796678318673669</v>
       </c>
     </row>
     <row r="25" spans="1:40" x14ac:dyDescent="0.3">
@@ -58735,23 +59818,23 @@
       </c>
       <c r="B25" s="2">
         <f>[18]pn_h_f0_b0!B8</f>
-        <v>87.31</v>
+        <v>1.17</v>
       </c>
       <c r="C25" s="2">
         <f>[18]pn_h_f0_b0!C8</f>
-        <v>80.538779956972604</v>
+        <v>-0.60663699285287898</v>
       </c>
       <c r="D25" s="2">
         <f>[18]pn_h_f0_b0!D8</f>
-        <v>94.081848877850604</v>
+        <v>2.9431319242153</v>
       </c>
       <c r="E25" s="2">
         <f>[18]pn_h_f0_b0!E8</f>
-        <v>2.4710000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="F25">
         <f t="shared" si="0"/>
-        <v>6.7712200430273981</v>
+        <v>1.7766369928528789</v>
       </c>
     </row>
     <row r="29" spans="1:40" x14ac:dyDescent="0.3">
@@ -58845,7 +59928,7 @@
   <dimension ref="A1:T49"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -58853,7 +59936,7 @@
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -58878,129 +59961,126 @@
         <v>CI diff</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="str">
         <f>RIGHT([19]pn_f0_exc_b0!A2,5)</f>
-        <v>syls1</v>
+        <v>syls0</v>
       </c>
       <c r="B2" s="1">
         <f>[19]pn_f0_exc_b0!B2</f>
-        <v>2.2309999999999999</v>
+        <v>2.25</v>
       </c>
       <c r="C2" s="1">
         <f>[19]pn_f0_exc_b0!C2</f>
-        <v>-4.2671079834560697</v>
+        <v>1.2193754869086899</v>
       </c>
       <c r="D2" s="1">
         <f>[19]pn_f0_exc_b0!D2</f>
-        <v>8.7293544037039794</v>
+        <v>3.2871948464253302</v>
       </c>
       <c r="E2" s="1">
         <f>[19]pn_f0_exc_b0!E2</f>
-        <v>0.79400000000000004</v>
+        <v>0.48</v>
       </c>
       <c r="F2" s="13">
         <f>B2-C2</f>
-        <v>6.4981079834560695</v>
-      </c>
-      <c r="R2" s="43" t="s">
+        <v>1.0306245130913101</v>
+      </c>
+      <c r="R2" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="S2" s="44"/>
-      <c r="T2" s="15"/>
+      <c r="S2" s="43"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="str">
         <f>RIGHT([19]pn_f0_exc_b0!A3,5)</f>
-        <v>syls2</v>
+        <v>syls1</v>
       </c>
       <c r="B3" s="1">
         <f>[19]pn_f0_exc_b0!B3</f>
-        <v>2.7709999999999999</v>
+        <v>2.19</v>
       </c>
       <c r="C3" s="1">
         <f>[19]pn_f0_exc_b0!C3</f>
-        <v>-4.1922066910818598</v>
+        <v>3.71627578716653E-2</v>
       </c>
       <c r="D3" s="1">
         <f>[19]pn_f0_exc_b0!D3</f>
-        <v>9.7336180292522307</v>
+        <v>4.3492149985115196</v>
       </c>
       <c r="E3" s="1">
         <f>[19]pn_f0_exc_b0!E3</f>
-        <v>0.78800000000000003</v>
+        <v>0.84</v>
       </c>
       <c r="F3" s="13">
         <f t="shared" ref="F3:F5" si="0">B3-C3</f>
-        <v>6.9632066910818597</v>
-      </c>
-      <c r="R3" s="45" t="s">
+        <v>2.1528372421283346</v>
+      </c>
+      <c r="R3" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="S3" s="46"/>
-      <c r="T3" s="15"/>
+      <c r="S3" s="45"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="str">
         <f>RIGHT([19]pn_f0_exc_b0!A4,5)</f>
-        <v>syls3</v>
+        <v>syls2</v>
       </c>
       <c r="B4" s="1">
         <f>[19]pn_f0_exc_b0!B4</f>
-        <v>3.024</v>
+        <v>3.25</v>
       </c>
       <c r="C4" s="1">
         <f>[19]pn_f0_exc_b0!C4</f>
-        <v>-4.38282866149612</v>
+        <v>1.10274649319997</v>
       </c>
       <c r="D4" s="1">
         <f>[19]pn_f0_exc_b0!D4</f>
-        <v>10.431437983185299</v>
+        <v>5.3896313290389104</v>
       </c>
       <c r="E4" s="1">
         <f>[19]pn_f0_exc_b0!E4</f>
-        <v>0.77900000000000003</v>
+        <v>0.86</v>
       </c>
       <c r="F4" s="13">
         <f t="shared" si="0"/>
-        <v>7.4068286614961201</v>
-      </c>
-      <c r="R4" s="15"/>
+        <v>2.14725350680003</v>
+      </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="str">
         <f>RIGHT([19]pn_f0_exc_b0!A5,5)</f>
-        <v>syls4</v>
+        <v>syls3</v>
       </c>
       <c r="B5" s="1">
         <f>[19]pn_f0_exc_b0!B5</f>
-        <v>2.7440000000000002</v>
+        <v>2.74</v>
       </c>
       <c r="C5" s="1">
         <f>[19]pn_f0_exc_b0!C5</f>
-        <v>-4.1008341850404104</v>
+        <v>0.59682035643766795</v>
       </c>
       <c r="D5" s="1">
         <f>[19]pn_f0_exc_b0!D5</f>
-        <v>9.5880763180119892</v>
+        <v>4.8835889161651904</v>
       </c>
       <c r="E5" s="1">
         <f>[19]pn_f0_exc_b0!E5</f>
-        <v>0.78800000000000003</v>
+        <v>0.86</v>
       </c>
       <c r="F5" s="13">
         <f t="shared" si="0"/>
-        <v>6.8448341850404102</v>
+        <v>2.1431796435623323</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="13"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -59024,111 +60104,111 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="str">
         <f>RIGHT([20]pn_lh_slope_b0!A2,5)</f>
-        <v>syls1</v>
+        <v>syls0</v>
       </c>
       <c r="B8" s="1">
         <f>[20]pn_lh_slope_b0!B2</f>
-        <v>2.887</v>
+        <v>2.67</v>
       </c>
       <c r="C8" s="1">
         <f>[20]pn_lh_slope_b0!C2</f>
-        <v>1.9655650558156801</v>
+        <v>2.2444539271720498</v>
       </c>
       <c r="D8" s="1">
         <f>[20]pn_lh_slope_b0!D2</f>
-        <v>3.8079351631042302</v>
+        <v>3.09445969557542</v>
       </c>
       <c r="E8" s="1">
         <f>[20]pn_lh_slope_b0!E2</f>
-        <v>0.33800000000000002</v>
+        <v>0.19</v>
       </c>
       <c r="F8" s="13">
         <f>B8-C8</f>
-        <v>0.92143494418431993</v>
+        <v>0.42554607282795009</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="str">
         <f>RIGHT([20]pn_lh_slope_b0!A3,5)</f>
-        <v>syls2</v>
+        <v>syls1</v>
       </c>
       <c r="B9" s="1">
         <f>[20]pn_lh_slope_b0!B3</f>
-        <v>2.2650000000000001</v>
+        <v>2.73</v>
       </c>
       <c r="C9" s="1">
         <f>[20]pn_lh_slope_b0!C3</f>
-        <v>1.7362996734671901</v>
+        <v>1.79172008297501</v>
       </c>
       <c r="D9" s="1">
         <f>[20]pn_lh_slope_b0!D3</f>
-        <v>2.7946913656717198</v>
+        <v>3.662384469864</v>
       </c>
       <c r="E9" s="1">
         <f>[20]pn_lh_slope_b0!E3</f>
-        <v>0.217</v>
+        <v>0.32</v>
       </c>
       <c r="F9" s="13">
         <f>B9-C9</f>
-        <v>0.52870032653281007</v>
+        <v>0.93827991702499003</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="str">
         <f>RIGHT([20]pn_lh_slope_b0!A4,5)</f>
-        <v>syls3</v>
+        <v>syls2</v>
       </c>
       <c r="B10" s="1">
         <f>[20]pn_lh_slope_b0!B4</f>
-        <v>2.806</v>
+        <v>2.9</v>
       </c>
       <c r="C10" s="1">
         <f>[20]pn_lh_slope_b0!C4</f>
-        <v>2.11047999955146</v>
+        <v>1.9889242999987899</v>
       </c>
       <c r="D10" s="1">
         <f>[20]pn_lh_slope_b0!D4</f>
-        <v>3.5013681689313301</v>
+        <v>3.8174185660920301</v>
       </c>
       <c r="E10" s="1">
         <f>[20]pn_lh_slope_b0!E4</f>
-        <v>0.27100000000000002</v>
+        <v>0.33</v>
       </c>
       <c r="F10" s="13">
         <f>B10-C10</f>
-        <v>0.69552000044854001</v>
+        <v>0.91107570000120996</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="str">
         <f>RIGHT([20]pn_lh_slope_b0!A5,5)</f>
-        <v>syls4</v>
+        <v>syls3</v>
       </c>
       <c r="B11" s="1">
         <f>[20]pn_lh_slope_b0!B5</f>
-        <v>2.996</v>
+        <v>2.77</v>
       </c>
       <c r="C11" s="1">
         <f>[20]pn_lh_slope_b0!C5</f>
-        <v>2.2385402820217699</v>
+        <v>1.8541376361439801</v>
       </c>
       <c r="D11" s="1">
         <f>[20]pn_lh_slope_b0!D5</f>
-        <v>3.7529134134525699</v>
+        <v>3.6785445274248301</v>
       </c>
       <c r="E11" s="1">
         <f>[20]pn_lh_slope_b0!E5</f>
-        <v>0.32700000000000001</v>
+        <v>0.33</v>
       </c>
       <c r="F11" s="13">
         <f>B11-C11</f>
-        <v>0.75745971797823008</v>
+        <v>0.91586236385601993</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>21</v>
       </c>
@@ -59136,10 +60216,10 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="str">
         <f>A15</f>
-        <v>syls1</v>
+        <v>syls0</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -59152,27 +60232,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="str">
         <f>A8</f>
-        <v>syls1</v>
+        <v>syls0</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15" s="1">
         <f>B8</f>
-        <v>2.887</v>
+        <v>2.67</v>
       </c>
       <c r="D15" s="2">
         <f>EXP(C15)</f>
-        <v>17.93941056172967</v>
+        <v>14.439969192802881</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="str">
         <f>A17</f>
-        <v>syls2</v>
+        <v>syls1</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -59190,7 +60270,7 @@
     <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="str">
         <f>A9</f>
-        <v>syls2</v>
+        <v>syls1</v>
       </c>
       <c r="B17">
         <f>B15</f>
@@ -59198,11 +60278,11 @@
       </c>
       <c r="C17" s="1">
         <f>B9</f>
-        <v>2.2650000000000001</v>
+        <v>2.73</v>
       </c>
       <c r="D17" s="2">
         <f t="shared" ref="D17" si="3">EXP(C17)</f>
-        <v>9.6311246011102867</v>
+        <v>15.332887019907195</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="13"/>
@@ -59210,7 +60290,7 @@
     <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="str">
         <f>A19</f>
-        <v>syls3</v>
+        <v>syls2</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -59228,7 +60308,7 @@
     <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="str">
         <f>A10</f>
-        <v>syls3</v>
+        <v>syls2</v>
       </c>
       <c r="B19">
         <f>B17</f>
@@ -59236,11 +60316,11 @@
       </c>
       <c r="C19" s="1">
         <f>B10</f>
-        <v>2.806</v>
+        <v>2.9</v>
       </c>
       <c r="D19" s="2">
         <f t="shared" ref="D19" si="5">EXP(C19)</f>
-        <v>16.543611248261875</v>
+        <v>18.17414536944306</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="13"/>
@@ -59251,7 +60331,7 @@
     <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="str">
         <f>A21</f>
-        <v>syls4</v>
+        <v>syls3</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -59267,7 +60347,7 @@
     <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="str">
         <f>A11</f>
-        <v>syls4</v>
+        <v>syls3</v>
       </c>
       <c r="B21">
         <f>B19</f>
@@ -59275,11 +60355,11 @@
       </c>
       <c r="C21" s="1">
         <f>B11</f>
-        <v>2.996</v>
+        <v>2.77</v>
       </c>
       <c r="D21" s="2">
         <f t="shared" ref="D21" si="7">EXP(C21)</f>
-        <v>20.005355245758651</v>
+        <v>15.958634009794029</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.3">
@@ -59298,11 +60378,11 @@
     <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24" t="str">
         <f>A8</f>
-        <v>syls1</v>
+        <v>syls0</v>
       </c>
       <c r="B24" s="1">
         <f>EXP(B8)</f>
-        <v>17.93941056172967</v>
+        <v>14.439969192802881</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -59312,11 +60392,11 @@
     <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25" t="str">
         <f>A9</f>
-        <v>syls2</v>
+        <v>syls1</v>
       </c>
       <c r="B25" s="1">
         <f t="shared" ref="B25:B27" si="8">EXP(B9)</f>
-        <v>9.6311246011102867</v>
+        <v>15.332887019907195</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -59326,11 +60406,11 @@
     <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" t="str">
         <f>A10</f>
-        <v>syls3</v>
+        <v>syls2</v>
       </c>
       <c r="B26" s="1">
         <f t="shared" si="8"/>
-        <v>16.543611248261875</v>
+        <v>18.17414536944306</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -59340,11 +60420,11 @@
     <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27" t="str">
         <f>A11</f>
-        <v>syls4</v>
+        <v>syls3</v>
       </c>
       <c r="B27" s="1">
         <f t="shared" si="8"/>
-        <v>20.005355245758651</v>
+        <v>15.958634009794029</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -59440,7 +60520,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD988D8E-F0EB-4DEA-8BE1-D87AA003D5D5}">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -59449,228 +60529,228 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="F1" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="35" t="s">
+      <c r="G1" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="35" t="s">
+      <c r="H1" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="35" t="s">
+      <c r="I1" s="34" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="20">
+      <c r="B2" s="19">
         <v>1</v>
       </c>
-      <c r="C2" s="20">
+      <c r="C2" s="19">
         <v>0</v>
       </c>
-      <c r="D2" s="20">
+      <c r="D2" s="19">
         <v>1</v>
       </c>
-      <c r="E2" s="26">
+      <c r="E2" s="25">
         <v>1</v>
       </c>
-      <c r="F2" s="34">
+      <c r="F2" s="33">
         <v>35</v>
       </c>
-      <c r="G2" s="33">
+      <c r="G2" s="32">
         <v>6</v>
       </c>
-      <c r="H2" s="32">
+      <c r="H2" s="31">
         <v>13</v>
       </c>
-      <c r="I2" s="31">
+      <c r="I2" s="30">
         <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="20">
+      <c r="B3" s="19">
         <v>1</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="19">
         <v>0</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3" s="19">
         <v>2</v>
       </c>
-      <c r="E3" s="18">
+      <c r="E3" s="17">
         <v>1</v>
       </c>
-      <c r="F3" s="30">
+      <c r="F3" s="29">
         <v>46</v>
       </c>
-      <c r="G3" s="29">
+      <c r="G3" s="28">
         <v>5</v>
       </c>
-      <c r="H3" s="17">
+      <c r="H3" s="16">
         <v>4</v>
       </c>
-      <c r="I3" s="22">
+      <c r="I3" s="21">
         <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="20">
+      <c r="B4" s="19">
         <v>2</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="19">
         <v>0</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="19">
         <v>2</v>
       </c>
-      <c r="E4" s="27">
+      <c r="E4" s="26">
         <v>3</v>
       </c>
-      <c r="F4" s="28">
+      <c r="F4" s="27">
         <v>48</v>
       </c>
-      <c r="G4" s="24">
+      <c r="G4" s="23">
         <v>2</v>
       </c>
-      <c r="H4" s="27">
+      <c r="H4" s="26">
         <v>3</v>
       </c>
-      <c r="I4" s="22">
+      <c r="I4" s="21">
         <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="20">
+      <c r="B5" s="19">
         <v>2</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="19">
         <v>0</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="19">
         <v>3</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="17">
         <v>1</v>
       </c>
-      <c r="F5" s="25">
+      <c r="F5" s="24">
         <v>35</v>
       </c>
-      <c r="G5" s="27">
+      <c r="G5" s="26">
         <v>3</v>
       </c>
-      <c r="H5" s="18">
+      <c r="H5" s="17">
         <v>1</v>
       </c>
-      <c r="I5" s="26">
+      <c r="I5" s="25">
         <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="20">
+      <c r="B6" s="19">
         <v>3</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="19">
         <v>1</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="19">
         <v>1</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="17">
         <v>1</v>
       </c>
-      <c r="F6" s="25">
+      <c r="F6" s="24">
         <v>35</v>
       </c>
-      <c r="G6" s="24">
+      <c r="G6" s="23">
         <v>2</v>
       </c>
-      <c r="H6" s="23">
+      <c r="H6" s="22">
         <v>18</v>
       </c>
-      <c r="I6" s="22">
+      <c r="I6" s="21">
         <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="20">
+      <c r="B7" s="19">
         <v>3</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="19">
         <v>1</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="19">
         <v>2</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="17">
         <v>1</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="18">
         <v>51</v>
       </c>
-      <c r="G7" s="18">
+      <c r="G7" s="17">
         <v>1</v>
       </c>
-      <c r="H7" s="17">
+      <c r="H7" s="16">
         <v>4</v>
       </c>
-      <c r="I7" s="16">
+      <c r="I7" s="15">
         <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="38" t="s">
+      <c r="A8" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="37">
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="36">
         <v>8</v>
       </c>
-      <c r="F8" s="40">
+      <c r="F8" s="39">
         <v>250</v>
       </c>
-      <c r="G8" s="41">
+      <c r="G8" s="40">
         <v>19</v>
       </c>
-      <c r="H8" s="42">
+      <c r="H8" s="41">
         <v>43</v>
       </c>
-      <c r="I8" s="39">
+      <c r="I8" s="38">
         <v>320</v>
       </c>
     </row>

--- a/Ch_6_Form/6 Graphs.xlsx
+++ b/Ch_6_Form/6 Graphs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antoi\Github\PhD\Ch_6_Form\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C63BCB95-118F-49B3-A477-8C174711C59A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A87EF4E-C729-447C-9A8E-8F9738FD12D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="3" xr2:uid="{1ABE4724-14B1-4801-819D-892587CA02C5}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="16440" activeTab="5" xr2:uid="{1ABE4724-14B1-4801-819D-892587CA02C5}"/>
   </bookViews>
   <sheets>
     <sheet name="nuc foot" sheetId="1" r:id="rId1"/>
@@ -24483,7 +24483,7 @@
                     <c:v>39.603253615283961</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>32.523008490727989</c:v>
+                    <c:v>32.523102356104999</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -24498,7 +24498,7 @@
                     <c:v>39.603253615283961</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>32.523008490727989</c:v>
+                    <c:v>32.523102356104999</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -24695,7 +24695,7 @@
                     <c:v>38.994705327151109</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>34.32899009903602</c:v>
+                    <c:v>34.329239056907994</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -24710,7 +24710,7 @@
                     <c:v>38.994705327151109</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>34.32899009903602</c:v>
+                    <c:v>34.329239056907994</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -24817,7 +24817,7 @@
                     <c:v>39.120556731791503</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>43.893535616929</c:v>
+                    <c:v>43.894060309150973</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -24832,7 +24832,7 @@
                     <c:v>39.120556731791503</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>43.893535616929</c:v>
+                    <c:v>43.894060309150973</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -24988,7 +24988,7 @@
                     <c:v>39.612457096101295</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>39.996234637442996</c:v>
+                    <c:v>39.998646913039011</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -25003,7 +25003,7 @@
                     <c:v>39.612457096101295</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>39.996234637442996</c:v>
+                    <c:v>39.998646913039011</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -25557,16 +25557,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>32.523008490727989</c:v>
+                    <c:v>32.523102356104999</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>34.32899009903602</c:v>
+                    <c:v>34.329239056907994</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>43.893535616929</c:v>
+                    <c:v>43.894060309150973</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>39.996234637442996</c:v>
+                    <c:v>39.998646913039011</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -25578,16 +25578,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>32.523008490727989</c:v>
+                    <c:v>32.523102356104999</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>34.32899009903602</c:v>
+                    <c:v>34.329239056907994</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>43.893535616929</c:v>
+                    <c:v>43.894060309150973</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>39.996234637442996</c:v>
+                    <c:v>39.998646913039011</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -25707,16 +25707,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>32.523008490727989</c:v>
+                    <c:v>32.523102356104999</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>34.32899009903602</c:v>
+                    <c:v>34.329239056907994</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>43.893535616929</c:v>
+                    <c:v>43.894060309150973</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>39.996234637442996</c:v>
+                    <c:v>39.998646913039011</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -25728,16 +25728,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>32.523008490727989</c:v>
+                    <c:v>32.523102356104999</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>34.32899009903602</c:v>
+                    <c:v>34.329239056907994</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>43.893535616929</c:v>
+                    <c:v>43.894060309150973</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>39.996234637442996</c:v>
+                    <c:v>39.998646913039011</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -26815,7 +26815,7 @@
                     <c:v>39.603253615283961</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>32.523008490727989</c:v>
+                    <c:v>32.523102356104999</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -26830,7 +26830,7 @@
                     <c:v>39.603253615283961</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>32.523008490727989</c:v>
+                    <c:v>32.523102356104999</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -27027,7 +27027,7 @@
                     <c:v>38.994705327151109</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>34.32899009903602</c:v>
+                    <c:v>34.329239056907994</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -27042,7 +27042,7 @@
                     <c:v>38.994705327151109</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>34.32899009903602</c:v>
+                    <c:v>34.329239056907994</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -27149,7 +27149,7 @@
                     <c:v>39.120556731791503</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>43.893535616929</c:v>
+                    <c:v>43.894060309150973</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -27164,7 +27164,7 @@
                     <c:v>39.120556731791503</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>43.893535616929</c:v>
+                    <c:v>43.894060309150973</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -27320,7 +27320,7 @@
                     <c:v>39.612457096101295</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>39.996234637442996</c:v>
+                    <c:v>39.998646913039011</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -27335,7 +27335,7 @@
                     <c:v>39.612457096101295</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>39.996234637442996</c:v>
+                    <c:v>39.998646913039011</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -27863,7 +27863,7 @@
                     <c:v>39.603253615283961</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>32.523050319513999</c:v>
+                    <c:v>32.523161582785008</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -27878,7 +27878,7 @@
                     <c:v>39.603253615283961</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>32.523050319513999</c:v>
+                    <c:v>32.523161582785008</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -28075,7 +28075,7 @@
                     <c:v>96.232645765229094</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>55.871600420300609</c:v>
+                    <c:v>55.87153053789001</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -28090,7 +28090,7 @@
                     <c:v>96.232645765229094</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>55.871600420300609</c:v>
+                    <c:v>55.87153053789001</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -28197,7 +28197,7 @@
                     <c:v>96.168894014132306</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>56.526610306574014</c:v>
+                    <c:v>56.526462709865996</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -28212,7 +28212,7 @@
                     <c:v>96.168894014132306</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>56.526610306574014</c:v>
+                    <c:v>56.526462709865996</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -28368,7 +28368,7 @@
                     <c:v>96.1658297226451</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>56.526598636073004</c:v>
+                    <c:v>56.526609547513999</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -28383,7 +28383,7 @@
                     <c:v>96.1658297226451</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>56.526598636073004</c:v>
+                    <c:v>56.526609547513999</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -28919,16 +28919,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>32.523050319513999</c:v>
+                    <c:v>32.523161582785008</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>55.871600420300609</c:v>
+                    <c:v>55.87153053789001</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>56.526610306574014</c:v>
+                    <c:v>56.526462709865996</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>56.526598636073004</c:v>
+                    <c:v>56.526609547513999</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -28940,16 +28940,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>32.523050319513999</c:v>
+                    <c:v>32.523161582785008</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>55.871600420300609</c:v>
+                    <c:v>55.87153053789001</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>56.526610306574014</c:v>
+                    <c:v>56.526462709865996</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>56.526598636073004</c:v>
+                    <c:v>56.526609547513999</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -29069,16 +29069,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>32.523050319513999</c:v>
+                    <c:v>32.523161582785008</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>55.871600420300609</c:v>
+                    <c:v>55.87153053789001</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>56.526610306574014</c:v>
+                    <c:v>56.526462709865996</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>56.526598636073004</c:v>
+                    <c:v>56.526609547513999</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -29090,16 +29090,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>32.523050319513999</c:v>
+                    <c:v>32.523161582785008</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>55.871600420300609</c:v>
+                    <c:v>55.87153053789001</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>56.526610306574014</c:v>
+                    <c:v>56.526462709865996</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>56.526598636073004</c:v>
+                    <c:v>56.526609547513999</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -31218,7 +31218,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>syls3</c:v>
+                  <c:v>foot_syls4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -31249,10 +31249,29 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="3.7309700897940994E-2"/>
-                  <c:y val="-2.9619747414658181E-2"/>
+                  <c:x val="3.3044084704736007E-2"/>
+                  <c:y val="-3.3125832889491912E-2"/>
                 </c:manualLayout>
               </c:layout>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900"/>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -31261,7 +31280,14 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.12394822006472492"/>
+                      <c:h val="7.0603492398287129E-2"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-4F58-43DB-A30E-F6CB6FA46978}"/>
                 </c:ext>
@@ -31335,7 +31361,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15.958634009794029</c:v>
+                  <c:v>17.637018199837321</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -31356,7 +31382,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>syls2</c:v>
+                  <c:v>foot_syls3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -31387,8 +31413,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="3.3634244834345219E-2"/>
-                  <c:y val="7.3755362742058406E-3"/>
+                  <c:x val="4.2384835560081852E-2"/>
+                  <c:y val="-5.4337911920860245E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:spPr>
@@ -31421,8 +31447,8 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout>
                     <c:manualLayout>
-                      <c:w val="0.10653526936775758"/>
-                      <c:h val="6.6447487494346438E-2"/>
+                      <c:w val="0.12502793946873145"/>
+                      <c:h val="7.5700200903061995E-2"/>
                     </c:manualLayout>
                   </c15:layout>
                 </c:ext>
@@ -31520,7 +31546,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>syls1</c:v>
+                  <c:v>foot_syls2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -31550,8 +31576,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="3.7659757435577937E-2"/>
-                  <c:y val="4.9220361106923289E-3"/>
+                  <c:x val="9.7046809778272396E-3"/>
+                  <c:y val="-9.9096907859985914E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -31635,7 +31661,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15.332887019907195</c:v>
+                  <c:v>16.945460824541019</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -31656,7 +31682,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>syls0</c:v>
+                  <c:v>foot_syls1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -31687,8 +31713,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="3.8211730200932777E-2"/>
-                  <c:y val="-3.9350652430039032E-2"/>
+                  <c:x val="5.1621580175786885E-2"/>
+                  <c:y val="-6.2044635184329136E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -31773,7 +31799,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14.439969192802881</c:v>
+                  <c:v>19.491919596031121</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -31908,28 +31934,12 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-IE" sz="900" b="0" i="1">
+                  <a:rPr lang="en-IE" sz="900" b="0" i="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
                   </a:rPr>
-                  <a:t>f</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-IE" sz="900" b="0" baseline="-25000">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                  </a:rPr>
-                  <a:t>0</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-IE" sz="900" b="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                  </a:rPr>
-                  <a:t> (ST)</a:t>
+                  <a:t>slope (ST/sec)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -31978,9 +31988,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.18314614379236571"/>
-          <c:y val="0.12853740535401165"/>
-          <c:w val="0.23318072738624382"/>
+          <c:x val="0.18781779477873961"/>
+          <c:y val="0.14269701756015982"/>
+          <c:w val="0.39058580276308075"/>
           <c:h val="0.28341185185185186"/>
         </c:manualLayout>
       </c:layout>
@@ -32089,7 +32099,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>syls3</c:v>
+                  <c:v>foot_syls4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -32130,7 +32140,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.77</c:v>
+                  <c:v>2.87</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -32151,7 +32161,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>syls2</c:v>
+                  <c:v>foot_syls3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -32213,7 +32223,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>syls1</c:v>
+                  <c:v>foot_syls2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -32254,7 +32264,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.73</c:v>
+                  <c:v>2.83</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -32275,7 +32285,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>syls0</c:v>
+                  <c:v>foot_syls1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -32316,7 +32326,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.67</c:v>
+                  <c:v>2.97</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -32451,28 +32461,12 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-IE" sz="900" b="0" i="1">
+                  <a:rPr lang="en-IE" sz="900" b="0" i="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
                   </a:rPr>
-                  <a:t>f</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-IE" sz="900" b="0" baseline="-25000">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                  </a:rPr>
-                  <a:t>0</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-IE" sz="900" b="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                  </a:rPr>
-                  <a:t> (ST)</a:t>
+                  <a:t>slope (log[ST/sec])</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -32523,7 +32517,7 @@
           <c:yMode val="edge"/>
           <c:x val="9.0809748534842333E-2"/>
           <c:y val="0.13839592592592589"/>
-          <c:w val="0.28227747892844907"/>
+          <c:w val="0.38907865178399059"/>
           <c:h val="0.32104148148148148"/>
         </c:manualLayout>
       </c:layout>
@@ -32758,16 +32752,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>1.0306245130913101</c:v>
+                    <c:v>0.91045775647741989</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>2.1528372421283346</c:v>
+                    <c:v>0.87820526092814033</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>2.14725350680003</c:v>
+                    <c:v>0.86641593967474018</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>2.1431796435623323</c:v>
+                    <c:v>0.89705323721548025</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -32779,16 +32773,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>1.0306245130913101</c:v>
+                    <c:v>0.91045775647741989</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>2.1528372421283346</c:v>
+                    <c:v>0.87820526092814033</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>2.14725350680003</c:v>
+                    <c:v>0.86641593967474018</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>2.1431796435623323</c:v>
+                    <c:v>0.89705323721548025</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -32800,16 +32794,16 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>syls0</c:v>
+                  <c:v>foot_syls1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>syls1</c:v>
+                  <c:v>foot_syls2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>syls2</c:v>
+                  <c:v>foot_syls3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>syls3</c:v>
+                  <c:v>foot_syls4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -32821,16 +32815,16 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2.25</c:v>
+                  <c:v>2.3199999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.19</c:v>
+                  <c:v>2.91</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.25</c:v>
+                  <c:v>3.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.74</c:v>
+                  <c:v>2.93</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -33248,16 +33242,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>0.42554607282795009</c:v>
+                    <c:v>0.92989045444073026</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.93827991702499003</c:v>
+                    <c:v>0.86846361377577996</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.91107570000120996</c:v>
+                    <c:v>0.95696662049842995</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.91586236385601993</c:v>
+                    <c:v>0.32087840727744998</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -33269,16 +33263,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>0.42554607282795009</c:v>
+                    <c:v>0.92989045444073026</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.93827991702499003</c:v>
+                    <c:v>0.86846361377577996</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.91107570000120996</c:v>
+                    <c:v>0.95696662049842995</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.91586236385601993</c:v>
+                    <c:v>0.32087840727744998</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -33290,16 +33284,16 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>syls0</c:v>
+                  <c:v>foot_syls1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>syls1</c:v>
+                  <c:v>foot_syls2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>syls2</c:v>
+                  <c:v>foot_syls3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>syls3</c:v>
+                  <c:v>foot_syls4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -33311,16 +33305,16 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2.67</c:v>
+                  <c:v>2.97</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.73</c:v>
+                  <c:v>2.83</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2.9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.77</c:v>
+                  <c:v>2.87</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -33714,16 +33708,16 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>syls0</c:v>
+                  <c:v>foot_syls1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>syls1</c:v>
+                  <c:v>foot_syls2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>syls2</c:v>
+                  <c:v>foot_syls3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>syls3</c:v>
+                  <c:v>foot_syls4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -33735,16 +33729,16 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2.25</c:v>
+                  <c:v>2.3199999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.19</c:v>
+                  <c:v>2.91</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.25</c:v>
+                  <c:v>3.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.74</c:v>
+                  <c:v>2.93</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -34156,16 +34150,16 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>syls0</c:v>
+                  <c:v>foot_syls1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>syls1</c:v>
+                  <c:v>foot_syls2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>syls2</c:v>
+                  <c:v>foot_syls3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>syls3</c:v>
+                  <c:v>foot_syls4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -34177,16 +34171,16 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2.67</c:v>
+                  <c:v>2.97</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.73</c:v>
+                  <c:v>2.83</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2.9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.77</c:v>
+                  <c:v>2.87</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -34400,6 +34394,866 @@
 </file>
 
 <file path=xl/charts/chart46.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.17260755106142528"/>
+          <c:y val="5.3600091302687433E-2"/>
+          <c:w val="0.63079731274731721"/>
+          <c:h val="0.783136730163979"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'pn slope exc'!$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>foot_syls4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400">
+              <a:solidFill>
+                <a:srgbClr val="E7298A"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-E698-4A5F-BDE5-6E8233C84A0C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.3044084704736007E-2"/>
+                  <c:y val="-3.3125832889491912E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900"/>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.12394822006472492"/>
+                      <c:h val="7.0603492398287129E-2"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-E698-4A5F-BDE5-6E8233C84A0C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="25400">
+                      <a:solidFill>
+                        <a:srgbClr val="E7298A"/>
+                      </a:solidFill>
+                      <a:prstDash val="sysDash"/>
+                    </a:ln>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'pn slope exc'!$B$20:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'pn slope exc'!$D$20:$D$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.637018199837321</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E698-4A5F-BDE5-6E8233C84A0C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'pn slope exc'!$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>foot_syls3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400">
+              <a:solidFill>
+                <a:srgbClr val="47298A"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-E698-4A5F-BDE5-6E8233C84A0C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="4.2384835560081852E-2"/>
+                  <c:y val="-5.4337911920860245E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900"/>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.12502793946873145"/>
+                      <c:h val="7.5700200903061995E-2"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-E698-4A5F-BDE5-6E8233C84A0C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="25400">
+                      <a:solidFill>
+                        <a:srgbClr val="47298A"/>
+                      </a:solidFill>
+                      <a:prstDash val="sysDot"/>
+                    </a:ln>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'pn slope exc'!$B$18:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'pn slope exc'!$D$18:$D$19</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.17414536944306</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-E698-4A5F-BDE5-6E8233C84A0C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'pn slope exc'!$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>foot_syls2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="D95F02"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-E698-4A5F-BDE5-6E8233C84A0C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="9.7046809778272396E-3"/>
+                  <c:y val="-9.9096907859985914E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-E698-4A5F-BDE5-6E8233C84A0C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="25400">
+                      <a:solidFill>
+                        <a:srgbClr val="D95F02"/>
+                      </a:solidFill>
+                    </a:ln>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'pn slope exc'!$B$16:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'pn slope exc'!$D$16:$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.945460824541019</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-E698-4A5F-BDE5-6E8233C84A0C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'pn slope exc'!$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>foot_syls1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400">
+              <a:solidFill>
+                <a:srgbClr val="1B9E77"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-E698-4A5F-BDE5-6E8233C84A0C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="5.1621580175786885E-2"/>
+                  <c:y val="-6.2044635184329136E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-E698-4A5F-BDE5-6E8233C84A0C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="25400">
+                      <a:solidFill>
+                        <a:srgbClr val="1B9E77"/>
+                      </a:solidFill>
+                      <a:prstDash val="dash"/>
+                    </a:ln>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'pn slope exc'!$B$14:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'pn slope exc'!$D$14:$D$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.491919596031121</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-E698-4A5F-BDE5-6E8233C84A0C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="755857903"/>
+        <c:axId val="755857071"/>
+        <c:extLst/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="755857903"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="D9D9D9"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="F2F2F2"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IE" sz="900" b="0"/>
+                  <a:t>secs</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="755857071"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.2"/>
+        <c:minorUnit val="0.1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="755857071"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:srgbClr val="D9D9D9"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="F2F2F2"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IE" sz="900" b="0" i="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>slope (ST/sec)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="755857903"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="5"/>
+        <c:minorUnit val="1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="25000"/>
+              <a:lumOff val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1878119962321656"/>
+          <c:y val="7.7452287031350972E-2"/>
+          <c:w val="0.39058580276308075"/>
+          <c:h val="0.28341185185185186"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="25000"/>
+              <a:lumOff val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart47.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -35516,7 +36370,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart48.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -53048,15 +53902,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>370149</xdr:colOff>
+      <xdr:colOff>360624</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>409657</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>21570</xdr:rowOff>
+      <xdr:colOff>44974</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>9939</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -53268,6 +54122,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>130098</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>283495</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>19465</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AED6DF6-D0B2-4793-BC31-6094B5C6F27F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -54175,10 +55067,10 @@
             <v>184.03</v>
           </cell>
           <cell r="C5">
-            <v>151.506949680486</v>
+            <v>151.50683841721499</v>
           </cell>
           <cell r="D5">
-            <v>216.54399928761001</v>
+            <v>216.54403127159</v>
           </cell>
           <cell r="E5">
             <v>15.51</v>
@@ -54192,10 +55084,10 @@
             <v>146.68</v>
           </cell>
           <cell r="C6">
-            <v>90.808399579699397</v>
+            <v>90.808469462109997</v>
           </cell>
           <cell r="D6">
-            <v>202.55092072075499</v>
+            <v>202.55082204353101</v>
           </cell>
           <cell r="E6">
             <v>23.92</v>
@@ -54209,10 +55101,10 @@
             <v>184.81</v>
           </cell>
           <cell r="C7">
-            <v>128.28338969342599</v>
+            <v>128.28353729013401</v>
           </cell>
           <cell r="D7">
-            <v>241.34456183907</v>
+            <v>241.344429878315</v>
           </cell>
           <cell r="E7">
             <v>24.92</v>
@@ -54226,10 +55118,10 @@
             <v>196.31</v>
           </cell>
           <cell r="C8">
-            <v>139.783401363927</v>
+            <v>139.783390452486</v>
           </cell>
           <cell r="D8">
-            <v>252.84052976831401</v>
+            <v>252.840571781113</v>
           </cell>
           <cell r="E8">
             <v>24.93</v>
@@ -54243,10 +55135,10 @@
             <v>184.03</v>
           </cell>
           <cell r="C9">
-            <v>151.50699150927201</v>
+            <v>151.506897643895</v>
           </cell>
           <cell r="D9">
-            <v>216.543988074411</v>
+            <v>216.54397852610199</v>
           </cell>
           <cell r="E9">
             <v>15.51</v>
@@ -54260,10 +55152,10 @@
             <v>223.65</v>
           </cell>
           <cell r="C10">
-            <v>189.32100990096399</v>
+            <v>189.32076094309201</v>
           </cell>
           <cell r="D10">
-            <v>257.98451528172501</v>
+            <v>257.98440541662802</v>
           </cell>
           <cell r="E10">
             <v>16.38</v>
@@ -54277,10 +55169,10 @@
             <v>250.64</v>
           </cell>
           <cell r="C11">
-            <v>206.74646438307099</v>
+            <v>206.74593969084901</v>
           </cell>
           <cell r="D11">
-            <v>294.53480036163103</v>
+            <v>294.53470861677101</v>
           </cell>
           <cell r="E11">
             <v>20.29</v>
@@ -54294,10 +55186,10 @@
             <v>251.81</v>
           </cell>
           <cell r="C12">
-            <v>211.81376536255701</v>
+            <v>211.81135308696099</v>
           </cell>
           <cell r="D12">
-            <v>291.80850172416001</v>
+            <v>291.81011699200002</v>
           </cell>
           <cell r="E12">
             <v>18.86</v>
@@ -54483,70 +55375,70 @@
         </row>
         <row r="2">
           <cell r="A2" t="str">
-            <v>ana_syls0</v>
+            <v>foot_syls1</v>
           </cell>
           <cell r="B2">
-            <v>2.25</v>
+            <v>2.3199999999999998</v>
           </cell>
           <cell r="C2">
-            <v>1.2193754869086899</v>
+            <v>1.40954224352258</v>
           </cell>
           <cell r="D2">
-            <v>3.2871948464253302</v>
+            <v>3.2305699380072102</v>
           </cell>
           <cell r="E2">
-            <v>0.48</v>
+            <v>0.43</v>
           </cell>
         </row>
         <row r="3">
           <cell r="A3" t="str">
-            <v>ana_syls1</v>
+            <v>foot_syls2</v>
           </cell>
           <cell r="B3">
-            <v>2.19</v>
+            <v>2.91</v>
           </cell>
           <cell r="C3">
-            <v>3.71627578716653E-2</v>
+            <v>2.0317947390718598</v>
           </cell>
           <cell r="D3">
-            <v>4.3492149985115196</v>
+            <v>3.78116697322687</v>
           </cell>
           <cell r="E3">
-            <v>0.84</v>
+            <v>0.41</v>
           </cell>
         </row>
         <row r="4">
           <cell r="A4" t="str">
-            <v>ana_syls2</v>
+            <v>foot_syls3</v>
           </cell>
           <cell r="B4">
-            <v>3.25</v>
+            <v>3.2</v>
           </cell>
           <cell r="C4">
-            <v>1.10274649319997</v>
+            <v>2.33358406032526</v>
           </cell>
           <cell r="D4">
-            <v>5.3896313290389104</v>
+            <v>4.0713630735969897</v>
           </cell>
           <cell r="E4">
-            <v>0.86</v>
+            <v>0.4</v>
           </cell>
         </row>
         <row r="5">
           <cell r="A5" t="str">
-            <v>ana_syls3</v>
+            <v>foot_syls4</v>
           </cell>
           <cell r="B5">
-            <v>2.74</v>
+            <v>2.93</v>
           </cell>
           <cell r="C5">
-            <v>0.59682035643766795</v>
+            <v>2.0329467627845199</v>
           </cell>
           <cell r="D5">
-            <v>4.8835889161651904</v>
+            <v>3.8351403664950801</v>
           </cell>
           <cell r="E5">
-            <v>0.86</v>
+            <v>0.42</v>
           </cell>
         </row>
       </sheetData>
@@ -54584,70 +55476,70 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="A2" t="str">
-            <v>ana_syls0</v>
+            <v>foot_syls1</v>
           </cell>
           <cell r="B2">
-            <v>2.67</v>
+            <v>2.97</v>
           </cell>
           <cell r="C2">
-            <v>2.2444539271720498</v>
+            <v>2.0401095455592699</v>
           </cell>
           <cell r="D2">
-            <v>3.09445969557542</v>
+            <v>3.9037741296025401</v>
           </cell>
           <cell r="E2">
-            <v>0.19</v>
+            <v>0.2</v>
           </cell>
         </row>
         <row r="3">
           <cell r="A3" t="str">
-            <v>ana_syls1</v>
+            <v>foot_syls2</v>
           </cell>
           <cell r="B3">
-            <v>2.73</v>
+            <v>2.83</v>
           </cell>
           <cell r="C3">
-            <v>1.79172008297501</v>
+            <v>1.9615363862242201</v>
           </cell>
           <cell r="D3">
-            <v>3.662384469864</v>
+            <v>3.68952450221507</v>
           </cell>
           <cell r="E3">
-            <v>0.32</v>
+            <v>0.21</v>
           </cell>
         </row>
         <row r="4">
           <cell r="A4" t="str">
-            <v>ana_syls2</v>
+            <v>foot_syls3</v>
           </cell>
           <cell r="B4">
             <v>2.9</v>
           </cell>
           <cell r="C4">
-            <v>1.9889242999987899</v>
+            <v>1.94303337950157</v>
           </cell>
           <cell r="D4">
-            <v>3.8174185660920301</v>
+            <v>3.8523216127305</v>
           </cell>
           <cell r="E4">
-            <v>0.33</v>
+            <v>0.19</v>
           </cell>
         </row>
         <row r="5">
           <cell r="A5" t="str">
-            <v>ana_syls3</v>
+            <v>foot_syls4</v>
           </cell>
           <cell r="B5">
-            <v>2.77</v>
+            <v>2.87</v>
           </cell>
           <cell r="C5">
-            <v>1.8541376361439801</v>
+            <v>2.5491215927225501</v>
           </cell>
           <cell r="D5">
-            <v>3.6785445274248301</v>
+            <v>3.18753310101377</v>
           </cell>
           <cell r="E5">
-            <v>0.33</v>
+            <v>0.14000000000000001</v>
           </cell>
         </row>
       </sheetData>
@@ -58679,7 +59571,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FC0849F-EF38-4D7B-B676-64AFB5DCFB0A}">
   <dimension ref="A1:AN40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
@@ -58979,11 +59871,11 @@
       </c>
       <c r="C16" s="3">
         <f>[17]pn_h_t_b0!C9</f>
-        <v>151.50699150927201</v>
+        <v>151.506897643895</v>
       </c>
       <c r="D16" s="3">
         <f>[17]pn_h_t_b0!D9</f>
-        <v>216.543988074411</v>
+        <v>216.54397852610199</v>
       </c>
       <c r="E16">
         <f>[17]pn_h_t_b0!E9</f>
@@ -58991,7 +59883,7 @@
       </c>
       <c r="F16">
         <f t="shared" si="0"/>
-        <v>32.523008490727989</v>
+        <v>32.523102356104999</v>
       </c>
     </row>
     <row r="17" spans="1:40" x14ac:dyDescent="0.3">
@@ -59005,11 +59897,11 @@
       </c>
       <c r="C17" s="3">
         <f>[17]pn_h_t_b0!C10</f>
-        <v>189.32100990096399</v>
+        <v>189.32076094309201</v>
       </c>
       <c r="D17" s="3">
         <f>[17]pn_h_t_b0!D10</f>
-        <v>257.98451528172501</v>
+        <v>257.98440541662802</v>
       </c>
       <c r="E17">
         <f>[17]pn_h_t_b0!E10</f>
@@ -59017,7 +59909,7 @@
       </c>
       <c r="F17">
         <f t="shared" si="0"/>
-        <v>34.32899009903602</v>
+        <v>34.329239056907994</v>
       </c>
     </row>
     <row r="18" spans="1:40" x14ac:dyDescent="0.3">
@@ -59031,11 +59923,11 @@
       </c>
       <c r="C18" s="3">
         <f>[17]pn_h_t_b0!C11</f>
-        <v>206.74646438307099</v>
+        <v>206.74593969084901</v>
       </c>
       <c r="D18" s="3">
         <f>[17]pn_h_t_b0!D11</f>
-        <v>294.53480036163103</v>
+        <v>294.53470861677101</v>
       </c>
       <c r="E18">
         <f>[17]pn_h_t_b0!E11</f>
@@ -59043,7 +59935,7 @@
       </c>
       <c r="F18">
         <f t="shared" si="0"/>
-        <v>43.893535616929</v>
+        <v>43.894060309150973</v>
       </c>
     </row>
     <row r="19" spans="1:40" x14ac:dyDescent="0.3">
@@ -59057,11 +59949,11 @@
       </c>
       <c r="C19" s="3">
         <f>[17]pn_h_t_b0!C12</f>
-        <v>211.81376536255701</v>
+        <v>211.81135308696099</v>
       </c>
       <c r="D19" s="3">
         <f>[17]pn_h_t_b0!D12</f>
-        <v>291.80850172416001</v>
+        <v>291.81011699200002</v>
       </c>
       <c r="E19">
         <f>[17]pn_h_t_b0!E12</f>
@@ -59069,7 +59961,7 @@
       </c>
       <c r="F19">
         <f t="shared" si="0"/>
-        <v>39.996234637442996</v>
+        <v>39.998646913039011</v>
       </c>
     </row>
     <row r="21" spans="1:40" x14ac:dyDescent="0.3">
@@ -59612,11 +60504,11 @@
       </c>
       <c r="C16" s="3">
         <f>[17]pn_h_t_b0!C5</f>
-        <v>151.506949680486</v>
+        <v>151.50683841721499</v>
       </c>
       <c r="D16" s="3">
         <f>[17]pn_h_t_b0!D5</f>
-        <v>216.54399928761001</v>
+        <v>216.54403127159</v>
       </c>
       <c r="E16" s="3">
         <f>[17]pn_h_t_b0!E5</f>
@@ -59624,7 +60516,7 @@
       </c>
       <c r="F16" s="3">
         <f>B16-C16</f>
-        <v>32.523050319513999</v>
+        <v>32.523161582785008</v>
       </c>
     </row>
     <row r="17" spans="1:40" x14ac:dyDescent="0.3">
@@ -59638,11 +60530,11 @@
       </c>
       <c r="C17" s="3">
         <f>[17]pn_h_t_b0!C6</f>
-        <v>90.808399579699397</v>
+        <v>90.808469462109997</v>
       </c>
       <c r="D17" s="3">
         <f>[17]pn_h_t_b0!D6</f>
-        <v>202.55092072075499</v>
+        <v>202.55082204353101</v>
       </c>
       <c r="E17" s="3">
         <f>[17]pn_h_t_b0!E6</f>
@@ -59650,7 +60542,7 @@
       </c>
       <c r="F17" s="3">
         <f>B17-C17</f>
-        <v>55.871600420300609</v>
+        <v>55.87153053789001</v>
       </c>
     </row>
     <row r="18" spans="1:40" x14ac:dyDescent="0.3">
@@ -59664,11 +60556,11 @@
       </c>
       <c r="C18" s="3">
         <f>[17]pn_h_t_b0!C7</f>
-        <v>128.28338969342599</v>
+        <v>128.28353729013401</v>
       </c>
       <c r="D18" s="3">
         <f>[17]pn_h_t_b0!D7</f>
-        <v>241.34456183907</v>
+        <v>241.344429878315</v>
       </c>
       <c r="E18" s="3">
         <f>[17]pn_h_t_b0!E7</f>
@@ -59676,7 +60568,7 @@
       </c>
       <c r="F18" s="3">
         <f>B18-C18</f>
-        <v>56.526610306574014</v>
+        <v>56.526462709865996</v>
       </c>
     </row>
     <row r="19" spans="1:40" x14ac:dyDescent="0.3">
@@ -59690,11 +60582,11 @@
       </c>
       <c r="C19" s="3">
         <f>[17]pn_h_t_b0!C8</f>
-        <v>139.783401363927</v>
+        <v>139.783390452486</v>
       </c>
       <c r="D19" s="3">
         <f>[17]pn_h_t_b0!D8</f>
-        <v>252.84052976831401</v>
+        <v>252.840571781113</v>
       </c>
       <c r="E19" s="3">
         <f>[17]pn_h_t_b0!E8</f>
@@ -59702,7 +60594,7 @@
       </c>
       <c r="F19" s="3">
         <f>B19-C19</f>
-        <v>56.526598636073004</v>
+        <v>56.526609547513999</v>
       </c>
     </row>
     <row r="21" spans="1:40" x14ac:dyDescent="0.3">
@@ -59781,7 +60673,7 @@
         <v>0.7</v>
       </c>
       <c r="F23">
-        <f t="shared" ref="F9:F25" si="0">B23-C23</f>
+        <f t="shared" ref="F23:F25" si="0">B23-C23</f>
         <v>1.7759811698808627</v>
       </c>
     </row>
@@ -59927,8 +60819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CF1DDAF-16D8-40D4-8656-D048765803AC}">
   <dimension ref="A1:T49"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -59963,28 +60855,28 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="str">
-        <f>RIGHT([19]pn_f0_exc_b0!A2,5)</f>
-        <v>syls0</v>
+        <f>([19]pn_f0_exc_b0!A2)</f>
+        <v>foot_syls1</v>
       </c>
       <c r="B2" s="1">
         <f>[19]pn_f0_exc_b0!B2</f>
-        <v>2.25</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="C2" s="1">
         <f>[19]pn_f0_exc_b0!C2</f>
-        <v>1.2193754869086899</v>
+        <v>1.40954224352258</v>
       </c>
       <c r="D2" s="1">
         <f>[19]pn_f0_exc_b0!D2</f>
-        <v>3.2871948464253302</v>
+        <v>3.2305699380072102</v>
       </c>
       <c r="E2" s="1">
         <f>[19]pn_f0_exc_b0!E2</f>
-        <v>0.48</v>
+        <v>0.43</v>
       </c>
       <c r="F2" s="13">
         <f>B2-C2</f>
-        <v>1.0306245130913101</v>
+        <v>0.91045775647741989</v>
       </c>
       <c r="R2" s="42" t="s">
         <v>24</v>
@@ -59993,28 +60885,28 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="str">
-        <f>RIGHT([19]pn_f0_exc_b0!A3,5)</f>
-        <v>syls1</v>
+        <f>([19]pn_f0_exc_b0!A3)</f>
+        <v>foot_syls2</v>
       </c>
       <c r="B3" s="1">
         <f>[19]pn_f0_exc_b0!B3</f>
-        <v>2.19</v>
+        <v>2.91</v>
       </c>
       <c r="C3" s="1">
         <f>[19]pn_f0_exc_b0!C3</f>
-        <v>3.71627578716653E-2</v>
+        <v>2.0317947390718598</v>
       </c>
       <c r="D3" s="1">
         <f>[19]pn_f0_exc_b0!D3</f>
-        <v>4.3492149985115196</v>
+        <v>3.78116697322687</v>
       </c>
       <c r="E3" s="1">
         <f>[19]pn_f0_exc_b0!E3</f>
-        <v>0.84</v>
+        <v>0.41</v>
       </c>
       <c r="F3" s="13">
         <f t="shared" ref="F3:F5" si="0">B3-C3</f>
-        <v>2.1528372421283346</v>
+        <v>0.87820526092814033</v>
       </c>
       <c r="R3" s="44" t="s">
         <v>25</v>
@@ -60023,54 +60915,54 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="str">
-        <f>RIGHT([19]pn_f0_exc_b0!A4,5)</f>
-        <v>syls2</v>
+        <f>([19]pn_f0_exc_b0!A4)</f>
+        <v>foot_syls3</v>
       </c>
       <c r="B4" s="1">
         <f>[19]pn_f0_exc_b0!B4</f>
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="C4" s="1">
         <f>[19]pn_f0_exc_b0!C4</f>
-        <v>1.10274649319997</v>
+        <v>2.33358406032526</v>
       </c>
       <c r="D4" s="1">
         <f>[19]pn_f0_exc_b0!D4</f>
-        <v>5.3896313290389104</v>
+        <v>4.0713630735969897</v>
       </c>
       <c r="E4" s="1">
         <f>[19]pn_f0_exc_b0!E4</f>
-        <v>0.86</v>
+        <v>0.4</v>
       </c>
       <c r="F4" s="13">
         <f t="shared" si="0"/>
-        <v>2.14725350680003</v>
+        <v>0.86641593967474018</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="str">
-        <f>RIGHT([19]pn_f0_exc_b0!A5,5)</f>
-        <v>syls3</v>
+        <f>([19]pn_f0_exc_b0!A5)</f>
+        <v>foot_syls4</v>
       </c>
       <c r="B5" s="1">
         <f>[19]pn_f0_exc_b0!B5</f>
-        <v>2.74</v>
+        <v>2.93</v>
       </c>
       <c r="C5" s="1">
         <f>[19]pn_f0_exc_b0!C5</f>
-        <v>0.59682035643766795</v>
+        <v>2.0329467627845199</v>
       </c>
       <c r="D5" s="1">
         <f>[19]pn_f0_exc_b0!D5</f>
-        <v>4.8835889161651904</v>
+        <v>3.8351403664950801</v>
       </c>
       <c r="E5" s="1">
         <f>[19]pn_f0_exc_b0!E5</f>
-        <v>0.86</v>
+        <v>0.42</v>
       </c>
       <c r="F5" s="13">
         <f t="shared" si="0"/>
-        <v>2.1431796435623323</v>
+        <v>0.89705323721548025</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
@@ -60106,60 +60998,60 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="str">
-        <f>RIGHT([20]pn_lh_slope_b0!A2,5)</f>
-        <v>syls0</v>
+        <f>([20]pn_lh_slope_b0!A2)</f>
+        <v>foot_syls1</v>
       </c>
       <c r="B8" s="1">
         <f>[20]pn_lh_slope_b0!B2</f>
-        <v>2.67</v>
+        <v>2.97</v>
       </c>
       <c r="C8" s="1">
         <f>[20]pn_lh_slope_b0!C2</f>
-        <v>2.2444539271720498</v>
+        <v>2.0401095455592699</v>
       </c>
       <c r="D8" s="1">
         <f>[20]pn_lh_slope_b0!D2</f>
-        <v>3.09445969557542</v>
+        <v>3.9037741296025401</v>
       </c>
       <c r="E8" s="1">
         <f>[20]pn_lh_slope_b0!E2</f>
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="F8" s="13">
         <f>B8-C8</f>
-        <v>0.42554607282795009</v>
+        <v>0.92989045444073026</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="str">
-        <f>RIGHT([20]pn_lh_slope_b0!A3,5)</f>
-        <v>syls1</v>
+        <f>([20]pn_lh_slope_b0!A3)</f>
+        <v>foot_syls2</v>
       </c>
       <c r="B9" s="1">
         <f>[20]pn_lh_slope_b0!B3</f>
-        <v>2.73</v>
+        <v>2.83</v>
       </c>
       <c r="C9" s="1">
         <f>[20]pn_lh_slope_b0!C3</f>
-        <v>1.79172008297501</v>
+        <v>1.9615363862242201</v>
       </c>
       <c r="D9" s="1">
         <f>[20]pn_lh_slope_b0!D3</f>
-        <v>3.662384469864</v>
+        <v>3.68952450221507</v>
       </c>
       <c r="E9" s="1">
         <f>[20]pn_lh_slope_b0!E3</f>
-        <v>0.32</v>
+        <v>0.21</v>
       </c>
       <c r="F9" s="13">
         <f>B9-C9</f>
-        <v>0.93827991702499003</v>
+        <v>0.86846361377577996</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="str">
-        <f>RIGHT([20]pn_lh_slope_b0!A4,5)</f>
-        <v>syls2</v>
+        <f>([20]pn_lh_slope_b0!A4)</f>
+        <v>foot_syls3</v>
       </c>
       <c r="B10" s="1">
         <f>[20]pn_lh_slope_b0!B4</f>
@@ -60167,45 +61059,45 @@
       </c>
       <c r="C10" s="1">
         <f>[20]pn_lh_slope_b0!C4</f>
-        <v>1.9889242999987899</v>
+        <v>1.94303337950157</v>
       </c>
       <c r="D10" s="1">
         <f>[20]pn_lh_slope_b0!D4</f>
-        <v>3.8174185660920301</v>
+        <v>3.8523216127305</v>
       </c>
       <c r="E10" s="1">
         <f>[20]pn_lh_slope_b0!E4</f>
-        <v>0.33</v>
+        <v>0.19</v>
       </c>
       <c r="F10" s="13">
         <f>B10-C10</f>
-        <v>0.91107570000120996</v>
+        <v>0.95696662049842995</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="str">
-        <f>RIGHT([20]pn_lh_slope_b0!A5,5)</f>
-        <v>syls3</v>
+        <f>([20]pn_lh_slope_b0!A5)</f>
+        <v>foot_syls4</v>
       </c>
       <c r="B11" s="1">
         <f>[20]pn_lh_slope_b0!B5</f>
-        <v>2.77</v>
+        <v>2.87</v>
       </c>
       <c r="C11" s="1">
         <f>[20]pn_lh_slope_b0!C5</f>
-        <v>1.8541376361439801</v>
+        <v>2.5491215927225501</v>
       </c>
       <c r="D11" s="1">
         <f>[20]pn_lh_slope_b0!D5</f>
-        <v>3.6785445274248301</v>
+        <v>3.18753310101377</v>
       </c>
       <c r="E11" s="1">
         <f>[20]pn_lh_slope_b0!E5</f>
-        <v>0.33</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F11" s="13">
         <f>B11-C11</f>
-        <v>0.91586236385601993</v>
+        <v>0.32087840727744998</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
@@ -60219,7 +61111,7 @@
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="str">
         <f>A15</f>
-        <v>syls0</v>
+        <v>foot_syls1</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -60235,24 +61127,24 @@
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="str">
         <f>A8</f>
-        <v>syls0</v>
+        <v>foot_syls1</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15" s="1">
         <f>B8</f>
-        <v>2.67</v>
+        <v>2.97</v>
       </c>
       <c r="D15" s="2">
         <f>EXP(C15)</f>
-        <v>14.439969192802881</v>
+        <v>19.491919596031121</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="str">
         <f>A17</f>
-        <v>syls1</v>
+        <v>foot_syls2</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -60270,7 +61162,7 @@
     <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="str">
         <f>A9</f>
-        <v>syls1</v>
+        <v>foot_syls2</v>
       </c>
       <c r="B17">
         <f>B15</f>
@@ -60278,11 +61170,11 @@
       </c>
       <c r="C17" s="1">
         <f>B9</f>
-        <v>2.73</v>
+        <v>2.83</v>
       </c>
       <c r="D17" s="2">
         <f t="shared" ref="D17" si="3">EXP(C17)</f>
-        <v>15.332887019907195</v>
+        <v>16.945460824541019</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="13"/>
@@ -60290,7 +61182,7 @@
     <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="str">
         <f>A19</f>
-        <v>syls2</v>
+        <v>foot_syls3</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -60308,7 +61200,7 @@
     <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="str">
         <f>A10</f>
-        <v>syls2</v>
+        <v>foot_syls3</v>
       </c>
       <c r="B19">
         <f>B17</f>
@@ -60331,7 +61223,7 @@
     <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="str">
         <f>A21</f>
-        <v>syls3</v>
+        <v>foot_syls4</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -60347,7 +61239,7 @@
     <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="str">
         <f>A11</f>
-        <v>syls3</v>
+        <v>foot_syls4</v>
       </c>
       <c r="B21">
         <f>B19</f>
@@ -60355,11 +61247,11 @@
       </c>
       <c r="C21" s="1">
         <f>B11</f>
-        <v>2.77</v>
+        <v>2.87</v>
       </c>
       <c r="D21" s="2">
         <f t="shared" ref="D21" si="7">EXP(C21)</f>
-        <v>15.958634009794029</v>
+        <v>17.637018199837321</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.3">
@@ -60378,11 +61270,11 @@
     <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24" t="str">
         <f>A8</f>
-        <v>syls0</v>
+        <v>foot_syls1</v>
       </c>
       <c r="B24" s="1">
         <f>EXP(B8)</f>
-        <v>14.439969192802881</v>
+        <v>19.491919596031121</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -60392,11 +61284,11 @@
     <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25" t="str">
         <f>A9</f>
-        <v>syls1</v>
+        <v>foot_syls2</v>
       </c>
       <c r="B25" s="1">
         <f t="shared" ref="B25:B27" si="8">EXP(B9)</f>
-        <v>15.332887019907195</v>
+        <v>16.945460824541019</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -60406,7 +61298,7 @@
     <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" t="str">
         <f>A10</f>
-        <v>syls2</v>
+        <v>foot_syls3</v>
       </c>
       <c r="B26" s="1">
         <f t="shared" si="8"/>
@@ -60420,11 +61312,11 @@
     <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27" t="str">
         <f>A11</f>
-        <v>syls3</v>
+        <v>foot_syls4</v>
       </c>
       <c r="B27" s="1">
         <f t="shared" si="8"/>
-        <v>15.958634009794029</v>
+        <v>17.637018199837321</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
